--- a/Hawthorn_stats.xlsx
+++ b/Hawthorn_stats.xlsx
@@ -13636,7 +13636,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Goal Assists</t>
+          <t>Goal Assists1</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -18284,7 +18284,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances1</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -18948,7 +18948,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers1</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -19612,7 +19612,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s1</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -31564,7 +31564,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers2</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -33556,7 +33556,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances2</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -34220,7 +34220,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s2</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -36212,7 +36212,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Goals Assists</t>
+          <t>Goals Assists2</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -37540,7 +37540,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Kicks (every)</t>
+          <t>Kicks (O)</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -38204,7 +38204,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Handballs (row)</t>
+          <t>Handballs (O)</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -38868,7 +38868,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Disposals (from)</t>
+          <t>Disposals (O)</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -39532,7 +39532,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Kick to HB Ratio (kicks)</t>
+          <t>Kick to HB Ratio (O)</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -40196,7 +40196,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Marks (below)</t>
+          <t>Marks (O)</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -40860,7 +40860,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Tackles(is against)</t>
+          <t>Tackles(O)</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -41524,7 +41524,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Hitouts</t>
+          <t>Hitouts(O)</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -42188,7 +42188,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Frees For</t>
+          <t>Frees For(O)</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -42852,7 +42852,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Frees Against</t>
+          <t>Frees Against(O)</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -43516,7 +43516,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Goals Kicked</t>
+          <t>Goals Kicked(O)</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -44180,7 +44180,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Goal Assists</t>
+          <t>Goal Assists1(O)</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -44844,7 +44844,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Behinds Kicked</t>
+          <t>Behinds Kicked(O)</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -45508,7 +45508,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Rushed Behinds</t>
+          <t>Rushed Behinds(O)</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -46172,7 +46172,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Scoring Shots</t>
+          <t>Scoring Shots(O)</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -46836,7 +46836,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Conversion %</t>
+          <t>Conversion %(O)</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -47500,7 +47500,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Disposals Per Goal</t>
+          <t>Disposals Per Goal(O)</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -48164,7 +48164,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Disposals Per Scoring Shot</t>
+          <t>Disposals Per Scoring Shot(O)</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -48828,7 +48828,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances1(O)</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -49492,7 +49492,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers1(O)</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -50156,7 +50156,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s1(O)</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -50820,7 +50820,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Inside 50s</t>
+          <t>Inside 50s(O)</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -51484,7 +51484,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>In50s Per Scoring Shot</t>
+          <t>In50s Per Scoring Shot(O)</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -52148,7 +52148,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>In50s Per Goal</t>
+          <t>In50s Per Goal(O)</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -52812,7 +52812,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>% In50s Score</t>
+          <t>% In50s Score(O)</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -53476,7 +53476,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>% In50s Goal</t>
+          <t>% In50s Goal(O)</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -54140,7 +54140,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>Height(O)</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -54804,7 +54804,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>Weight(O)</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -55468,7 +55468,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Age(O)</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -56132,7 +56132,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Av Games</t>
+          <t>Av Games(O)</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -56796,7 +56796,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>&lt;50 Games</t>
+          <t>&lt;50 Games(O)</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -57460,7 +57460,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>50-99 Games</t>
+          <t>50-99 Games(O)</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -58124,7 +58124,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>100-149 Games</t>
+          <t>100-149 Games(O)</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -58788,7 +58788,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>&gt;150 Games</t>
+          <t>&gt;150 Games(O)</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -59452,7 +59452,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Contested Poss</t>
+          <t>Contested Poss(O)</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -60116,7 +60116,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Uncontested Poss</t>
+          <t>Uncontested Poss(O)</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -60780,7 +60780,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Effective Disposals</t>
+          <t>Effective Disposals(O)</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -61444,7 +61444,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Disposal Efficiency</t>
+          <t>Disposal Efficiency(O)</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -62108,7 +62108,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers2(O)</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -62772,7 +62772,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Contested Marks</t>
+          <t>Contested Marks(O)</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -63436,7 +63436,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Marks Inside 50</t>
+          <t>Marks Inside 50(O)</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -64100,7 +64100,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances2(O)</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -64764,7 +64764,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s2(O)</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -65428,7 +65428,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1%ers</t>
+          <t>1%ers(O)</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -66092,7 +66092,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Bounces</t>
+          <t>Bounces(O)</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -66756,7 +66756,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Goals Assists</t>
+          <t>Goals Assists2(O)</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -67420,7 +67420,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Goal Assist %</t>
+          <t>Goal Assist %(O)</t>
         </is>
       </c>
       <c r="B102" t="n">

--- a/Hawthorn_stats.xlsx
+++ b/Hawthorn_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HL102"/>
+  <dimension ref="A1:HN102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1016,6 +1016,12 @@
       <c r="HL1" t="n">
         <v>9935</v>
       </c>
+      <c r="HM1" t="n">
+        <v>10127</v>
+      </c>
+      <c r="HN1" t="n">
+        <v>10135</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1680,6 +1686,12 @@
       <c r="HL2" t="n">
         <v>2020</v>
       </c>
+      <c r="HM2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2344,6 +2356,12 @@
       <c r="HL3" t="n">
         <v>1</v>
       </c>
+      <c r="HM3" t="n">
+        <v>2</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3008,6 +3026,12 @@
       <c r="HL4" t="n">
         <v>0</v>
       </c>
+      <c r="HM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3672,6 +3696,12 @@
       <c r="HL5" t="n">
         <v>0</v>
       </c>
+      <c r="HM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4336,6 +4366,12 @@
       <c r="HL6" t="n">
         <v>90</v>
       </c>
+      <c r="HM6" t="n">
+        <v>47</v>
+      </c>
+      <c r="HN6" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5000,6 +5036,12 @@
       <c r="HL7" t="n">
         <v>62</v>
       </c>
+      <c r="HM7" t="n">
+        <v>108</v>
+      </c>
+      <c r="HN7" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5664,6 +5706,12 @@
       <c r="HL8" t="n">
         <v>28</v>
       </c>
+      <c r="HM8" t="n">
+        <v>-61</v>
+      </c>
+      <c r="HN8" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6328,6 +6376,12 @@
       <c r="HL9" t="n">
         <v>1</v>
       </c>
+      <c r="HM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6992,6 +7046,12 @@
       <c r="HL10" t="n">
         <v>2</v>
       </c>
+      <c r="HM10" t="n">
+        <v>7</v>
+      </c>
+      <c r="HN10" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7656,6 +7716,12 @@
       <c r="HL11" t="n">
         <v>187</v>
       </c>
+      <c r="HM11" t="n">
+        <v>146</v>
+      </c>
+      <c r="HN11" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8320,6 +8386,12 @@
       <c r="HL12" t="n">
         <v>111</v>
       </c>
+      <c r="HM12" t="n">
+        <v>104</v>
+      </c>
+      <c r="HN12" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8984,6 +9056,12 @@
       <c r="HL13" t="n">
         <v>298</v>
       </c>
+      <c r="HM13" t="n">
+        <v>250</v>
+      </c>
+      <c r="HN13" t="n">
+        <v>318</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9648,6 +9726,12 @@
       <c r="HL14" t="n">
         <v>1.68</v>
       </c>
+      <c r="HM14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="HN14" t="n">
+        <v>1.47</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10312,6 +10396,12 @@
       <c r="HL15" t="n">
         <v>73</v>
       </c>
+      <c r="HM15" t="n">
+        <v>49</v>
+      </c>
+      <c r="HN15" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10976,6 +11066,12 @@
       <c r="HL16" t="n">
         <v>51</v>
       </c>
+      <c r="HM16" t="n">
+        <v>56</v>
+      </c>
+      <c r="HN16" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11640,6 +11736,12 @@
       <c r="HL17" t="n">
         <v>32</v>
       </c>
+      <c r="HM17" t="n">
+        <v>33</v>
+      </c>
+      <c r="HN17" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12304,6 +12406,12 @@
       <c r="HL18" t="n">
         <v>20</v>
       </c>
+      <c r="HM18" t="n">
+        <v>15</v>
+      </c>
+      <c r="HN18" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12968,6 +13076,12 @@
       <c r="HL19" t="n">
         <v>15</v>
       </c>
+      <c r="HM19" t="n">
+        <v>22</v>
+      </c>
+      <c r="HN19" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13632,6 +13746,12 @@
       <c r="HL20" t="n">
         <v>14</v>
       </c>
+      <c r="HM20" t="n">
+        <v>7</v>
+      </c>
+      <c r="HN20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14296,6 +14416,12 @@
       <c r="HL21" t="n">
         <v>12</v>
       </c>
+      <c r="HM21" t="n">
+        <v>6</v>
+      </c>
+      <c r="HN21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14960,6 +15086,12 @@
       <c r="HL22" t="n">
         <v>5</v>
       </c>
+      <c r="HM22" t="n">
+        <v>3</v>
+      </c>
+      <c r="HN22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15624,6 +15756,12 @@
       <c r="HL23" t="n">
         <v>1</v>
       </c>
+      <c r="HM23" t="n">
+        <v>2</v>
+      </c>
+      <c r="HN23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16288,6 +16426,12 @@
       <c r="HL24" t="n">
         <v>20</v>
       </c>
+      <c r="HM24" t="n">
+        <v>12</v>
+      </c>
+      <c r="HN24" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16952,6 +17096,12 @@
       <c r="HL25" t="n">
         <v>70</v>
       </c>
+      <c r="HM25" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="HN25" t="n">
+        <v>68.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17616,6 +17766,12 @@
       <c r="HL26" t="n">
         <v>21.29</v>
       </c>
+      <c r="HM26" t="n">
+        <v>35.71</v>
+      </c>
+      <c r="HN26" t="n">
+        <v>28.91</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18280,6 +18436,12 @@
       <c r="HL27" t="n">
         <v>14.9</v>
       </c>
+      <c r="HM27" t="n">
+        <v>20.83</v>
+      </c>
+      <c r="HN27" t="n">
+        <v>19.88</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18944,6 +19106,12 @@
       <c r="HL28" t="n">
         <v>28</v>
       </c>
+      <c r="HM28" t="n">
+        <v>23</v>
+      </c>
+      <c r="HN28" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19608,6 +19776,12 @@
       <c r="HL29" t="n">
         <v>45</v>
       </c>
+      <c r="HM29" t="n">
+        <v>49</v>
+      </c>
+      <c r="HN29" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20272,6 +20446,12 @@
       <c r="HL30" t="n">
         <v>37</v>
       </c>
+      <c r="HM30" t="n">
+        <v>37</v>
+      </c>
+      <c r="HN30" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20936,6 +21116,12 @@
       <c r="HL31" t="n">
         <v>45</v>
       </c>
+      <c r="HM31" t="n">
+        <v>40</v>
+      </c>
+      <c r="HN31" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21600,6 +21786,12 @@
       <c r="HL32" t="n">
         <v>2.25</v>
       </c>
+      <c r="HM32" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="HN32" t="n">
+        <v>2.19</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22264,6 +22456,12 @@
       <c r="HL33" t="n">
         <v>3.21</v>
       </c>
+      <c r="HM33" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="HN33" t="n">
+        <v>3.18</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22928,6 +23126,12 @@
       <c r="HL34" t="n">
         <v>42.2</v>
       </c>
+      <c r="HM34" t="n">
+        <v>25</v>
+      </c>
+      <c r="HN34" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23592,6 +23796,12 @@
       <c r="HL35" t="n">
         <v>31.1</v>
       </c>
+      <c r="HM35" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="HN35" t="n">
+        <v>31.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24256,6 +24466,12 @@
       <c r="HL36" t="n">
         <v>187.6</v>
       </c>
+      <c r="HM36" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="HN36" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24920,6 +25136,12 @@
       <c r="HL37" t="n">
         <v>87.5</v>
       </c>
+      <c r="HM37" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="HN37" t="n">
+        <v>87.90000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25584,6 +25806,12 @@
       <c r="HL38" t="n">
         <v>28.8</v>
       </c>
+      <c r="HM38" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="HN38" t="n">
+        <v>27.91</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26248,6 +26476,12 @@
       <c r="HL39" t="n">
         <v>144.2</v>
       </c>
+      <c r="HM39" t="n">
+        <v>144</v>
+      </c>
+      <c r="HN39" t="n">
+        <v>139.6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26912,6 +27146,12 @@
       <c r="HL40" t="n">
         <v>3</v>
       </c>
+      <c r="HM40" t="n">
+        <v>3</v>
+      </c>
+      <c r="HN40" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27576,6 +27816,12 @@
       <c r="HL41" t="n">
         <v>6</v>
       </c>
+      <c r="HM41" t="n">
+        <v>6</v>
+      </c>
+      <c r="HN41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28240,6 +28486,12 @@
       <c r="HL42" t="n">
         <v>1</v>
       </c>
+      <c r="HM42" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28904,6 +29156,12 @@
       <c r="HL43" t="n">
         <v>12</v>
       </c>
+      <c r="HM43" t="n">
+        <v>12</v>
+      </c>
+      <c r="HN43" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29568,6 +29826,12 @@
       <c r="HL44" t="n">
         <v>123</v>
       </c>
+      <c r="HM44" t="n">
+        <v>108</v>
+      </c>
+      <c r="HN44" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30232,6 +30496,12 @@
       <c r="HL45" t="n">
         <v>172</v>
       </c>
+      <c r="HM45" t="n">
+        <v>143</v>
+      </c>
+      <c r="HN45" t="n">
+        <v>196</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -30896,6 +31166,12 @@
       <c r="HL46" t="n">
         <v>214</v>
       </c>
+      <c r="HM46" t="n">
+        <v>160</v>
+      </c>
+      <c r="HN46" t="n">
+        <v>243</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31560,6 +31836,12 @@
       <c r="HL47" t="n">
         <v>71.8</v>
       </c>
+      <c r="HM47" t="n">
+        <v>64</v>
+      </c>
+      <c r="HN47" t="n">
+        <v>76.40000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32224,6 +32506,12 @@
       <c r="HL48" t="n">
         <v>45</v>
       </c>
+      <c r="HM48" t="n">
+        <v>49</v>
+      </c>
+      <c r="HN48" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -32888,6 +33176,12 @@
       <c r="HL49" t="n">
         <v>10</v>
       </c>
+      <c r="HM49" t="n">
+        <v>8</v>
+      </c>
+      <c r="HN49" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -33552,6 +33846,12 @@
       <c r="HL50" t="n">
         <v>11</v>
       </c>
+      <c r="HM50" t="n">
+        <v>4</v>
+      </c>
+      <c r="HN50" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34216,6 +34516,12 @@
       <c r="HL51" t="n">
         <v>28</v>
       </c>
+      <c r="HM51" t="n">
+        <v>23</v>
+      </c>
+      <c r="HN51" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -34880,6 +35186,12 @@
       <c r="HL52" t="n">
         <v>37</v>
       </c>
+      <c r="HM52" t="n">
+        <v>37</v>
+      </c>
+      <c r="HN52" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -35544,6 +35856,12 @@
       <c r="HL53" t="n">
         <v>46</v>
       </c>
+      <c r="HM53" t="n">
+        <v>55</v>
+      </c>
+      <c r="HN53" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -36208,6 +36526,12 @@
       <c r="HL54" t="n">
         <v>6</v>
       </c>
+      <c r="HM54" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -36872,6 +37196,12 @@
       <c r="HL55" t="n">
         <v>12</v>
       </c>
+      <c r="HM55" t="n">
+        <v>6</v>
+      </c>
+      <c r="HN55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -37536,6 +37866,12 @@
       <c r="HL56" t="n">
         <v>85.7</v>
       </c>
+      <c r="HM56" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="HN56" t="n">
+        <v>54.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -38200,6 +38536,12 @@
       <c r="HL57" t="n">
         <v>185</v>
       </c>
+      <c r="HM57" t="n">
+        <v>201</v>
+      </c>
+      <c r="HN57" t="n">
+        <v>171</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -38864,6 +39206,12 @@
       <c r="HL58" t="n">
         <v>103</v>
       </c>
+      <c r="HM58" t="n">
+        <v>139</v>
+      </c>
+      <c r="HN58" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -39528,6 +39876,12 @@
       <c r="HL59" t="n">
         <v>288</v>
       </c>
+      <c r="HM59" t="n">
+        <v>340</v>
+      </c>
+      <c r="HN59" t="n">
+        <v>297</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -40192,6 +40546,12 @@
       <c r="HL60" t="n">
         <v>1.8</v>
       </c>
+      <c r="HM60" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="HN60" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -40856,6 +41216,12 @@
       <c r="HL61" t="n">
         <v>68</v>
       </c>
+      <c r="HM61" t="n">
+        <v>78</v>
+      </c>
+      <c r="HN61" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -41520,6 +41886,12 @@
       <c r="HL62" t="n">
         <v>50</v>
       </c>
+      <c r="HM62" t="n">
+        <v>46</v>
+      </c>
+      <c r="HN62" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -42184,6 +42556,12 @@
       <c r="HL63" t="n">
         <v>23</v>
       </c>
+      <c r="HM63" t="n">
+        <v>34</v>
+      </c>
+      <c r="HN63" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -42848,6 +43226,12 @@
       <c r="HL64" t="n">
         <v>15</v>
       </c>
+      <c r="HM64" t="n">
+        <v>22</v>
+      </c>
+      <c r="HN64" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -43512,6 +43896,12 @@
       <c r="HL65" t="n">
         <v>20</v>
       </c>
+      <c r="HM65" t="n">
+        <v>15</v>
+      </c>
+      <c r="HN65" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -44176,6 +44566,12 @@
       <c r="HL66" t="n">
         <v>9</v>
       </c>
+      <c r="HM66" t="n">
+        <v>17</v>
+      </c>
+      <c r="HN66" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -44840,6 +45236,12 @@
       <c r="HL67" t="n">
         <v>6</v>
       </c>
+      <c r="HM67" t="n">
+        <v>13</v>
+      </c>
+      <c r="HN67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -45504,6 +45906,12 @@
       <c r="HL68" t="n">
         <v>7</v>
       </c>
+      <c r="HM68" t="n">
+        <v>4</v>
+      </c>
+      <c r="HN68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -46168,6 +46576,12 @@
       <c r="HL69" t="n">
         <v>1</v>
       </c>
+      <c r="HM69" t="n">
+        <v>2</v>
+      </c>
+      <c r="HN69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -46832,6 +47246,12 @@
       <c r="HL70" t="n">
         <v>17</v>
       </c>
+      <c r="HM70" t="n">
+        <v>23</v>
+      </c>
+      <c r="HN70" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -47496,6 +47916,12 @@
       <c r="HL71" t="n">
         <v>52.9</v>
       </c>
+      <c r="HM71" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="HN71" t="n">
+        <v>35.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -48160,6 +48586,12 @@
       <c r="HL72" t="n">
         <v>32</v>
       </c>
+      <c r="HM72" t="n">
+        <v>20</v>
+      </c>
+      <c r="HN72" t="n">
+        <v>59.4</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -48824,6 +49256,12 @@
       <c r="HL73" t="n">
         <v>16.94</v>
       </c>
+      <c r="HM73" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="HN73" t="n">
+        <v>21.21</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -49488,6 +49926,12 @@
       <c r="HL74" t="n">
         <v>28</v>
       </c>
+      <c r="HM74" t="n">
+        <v>41</v>
+      </c>
+      <c r="HN74" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -50152,6 +50596,12 @@
       <c r="HL75" t="n">
         <v>58</v>
       </c>
+      <c r="HM75" t="n">
+        <v>46</v>
+      </c>
+      <c r="HN75" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -50816,6 +51266,12 @@
       <c r="HL76" t="n">
         <v>30</v>
       </c>
+      <c r="HM76" t="n">
+        <v>31</v>
+      </c>
+      <c r="HN76" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -51480,6 +51936,12 @@
       <c r="HL77" t="n">
         <v>46</v>
       </c>
+      <c r="HM77" t="n">
+        <v>54</v>
+      </c>
+      <c r="HN77" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -52144,6 +52606,12 @@
       <c r="HL78" t="n">
         <v>2.71</v>
       </c>
+      <c r="HM78" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="HN78" t="n">
+        <v>3.07</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -52808,6 +53276,12 @@
       <c r="HL79" t="n">
         <v>5.11</v>
       </c>
+      <c r="HM79" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="HN79" t="n">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -53472,6 +53946,12 @@
       <c r="HL80" t="n">
         <v>34.8</v>
       </c>
+      <c r="HM80" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="HN80" t="n">
+        <v>27.9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -54136,6 +54616,12 @@
       <c r="HL81" t="n">
         <v>19.6</v>
       </c>
+      <c r="HM81" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="HN81" t="n">
+        <v>11.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -54800,6 +55286,12 @@
       <c r="HL82" t="n">
         <v>188.1</v>
       </c>
+      <c r="HM82" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="HN82" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -55464,6 +55956,12 @@
       <c r="HL83" t="n">
         <v>88.59999999999999</v>
       </c>
+      <c r="HM83" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="HN83" t="n">
+        <v>84.90000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -56128,6 +56626,12 @@
       <c r="HL84" t="n">
         <v>24.8</v>
       </c>
+      <c r="HM84" t="n">
+        <v>27.58</v>
+      </c>
+      <c r="HN84" t="n">
+        <v>26.24</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -56792,6 +57296,12 @@
       <c r="HL85" t="n">
         <v>87.8</v>
       </c>
+      <c r="HM85" t="n">
+        <v>137.4</v>
+      </c>
+      <c r="HN85" t="n">
+        <v>110.4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -57456,6 +57966,12 @@
       <c r="HL86" t="n">
         <v>7</v>
       </c>
+      <c r="HM86" t="n">
+        <v>6</v>
+      </c>
+      <c r="HN86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -58120,6 +58636,12 @@
       <c r="HL87" t="n">
         <v>6</v>
       </c>
+      <c r="HM87" t="n">
+        <v>4</v>
+      </c>
+      <c r="HN87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -58784,6 +59306,12 @@
       <c r="HL88" t="n">
         <v>4</v>
       </c>
+      <c r="HM88" t="n">
+        <v>2</v>
+      </c>
+      <c r="HN88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -59448,6 +59976,12 @@
       <c r="HL89" t="n">
         <v>5</v>
       </c>
+      <c r="HM89" t="n">
+        <v>10</v>
+      </c>
+      <c r="HN89" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -60112,6 +60646,12 @@
       <c r="HL90" t="n">
         <v>120</v>
       </c>
+      <c r="HM90" t="n">
+        <v>139</v>
+      </c>
+      <c r="HN90" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -60776,6 +61316,12 @@
       <c r="HL91" t="n">
         <v>160</v>
       </c>
+      <c r="HM91" t="n">
+        <v>207</v>
+      </c>
+      <c r="HN91" t="n">
+        <v>175</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -61440,6 +61986,12 @@
       <c r="HL92" t="n">
         <v>199</v>
       </c>
+      <c r="HM92" t="n">
+        <v>247</v>
+      </c>
+      <c r="HN92" t="n">
+        <v>208</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -62104,6 +62656,12 @@
       <c r="HL93" t="n">
         <v>69.09999999999999</v>
       </c>
+      <c r="HM93" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="HN93" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -62768,6 +63326,12 @@
       <c r="HL94" t="n">
         <v>58</v>
       </c>
+      <c r="HM94" t="n">
+        <v>46</v>
+      </c>
+      <c r="HN94" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -63432,6 +63996,12 @@
       <c r="HL95" t="n">
         <v>8</v>
       </c>
+      <c r="HM95" t="n">
+        <v>5</v>
+      </c>
+      <c r="HN95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -64096,6 +64666,12 @@
       <c r="HL96" t="n">
         <v>8</v>
       </c>
+      <c r="HM96" t="n">
+        <v>10</v>
+      </c>
+      <c r="HN96" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -64760,6 +65336,12 @@
       <c r="HL97" t="n">
         <v>28</v>
       </c>
+      <c r="HM97" t="n">
+        <v>41</v>
+      </c>
+      <c r="HN97" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -65424,6 +66006,12 @@
       <c r="HL98" t="n">
         <v>30</v>
       </c>
+      <c r="HM98" t="n">
+        <v>31</v>
+      </c>
+      <c r="HN98" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -66088,6 +66676,12 @@
       <c r="HL99" t="n">
         <v>40</v>
       </c>
+      <c r="HM99" t="n">
+        <v>51</v>
+      </c>
+      <c r="HN99" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -66752,6 +67346,12 @@
       <c r="HL100" t="n">
         <v>3</v>
       </c>
+      <c r="HM100" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -67416,6 +68016,12 @@
       <c r="HL101" t="n">
         <v>6</v>
       </c>
+      <c r="HM101" t="n">
+        <v>13</v>
+      </c>
+      <c r="HN101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -68080,8 +68686,14 @@
       <c r="HL102" t="n">
         <v>66.7</v>
       </c>
+      <c r="HM102" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="HN102" t="n">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Hawthorn_stats.xlsx
+++ b/Hawthorn_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HN102"/>
+  <dimension ref="A1:HO102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1022,6 +1022,9 @@
       <c r="HN1" t="n">
         <v>10135</v>
       </c>
+      <c r="HO1" t="n">
+        <v>10152</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1692,6 +1695,9 @@
       <c r="HN2" t="n">
         <v>2020</v>
       </c>
+      <c r="HO2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2362,6 +2368,9 @@
       <c r="HN3" t="n">
         <v>3</v>
       </c>
+      <c r="HO3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3032,6 +3041,9 @@
       <c r="HN4" t="n">
         <v>1</v>
       </c>
+      <c r="HO4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3702,6 +3714,9 @@
       <c r="HN5" t="n">
         <v>1</v>
       </c>
+      <c r="HO5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4372,6 +4387,9 @@
       <c r="HN6" t="n">
         <v>71</v>
       </c>
+      <c r="HO6" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5042,6 +5060,9 @@
       <c r="HN7" t="n">
         <v>39</v>
       </c>
+      <c r="HO7" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5712,6 +5733,9 @@
       <c r="HN8" t="n">
         <v>32</v>
       </c>
+      <c r="HO8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6382,6 +6406,9 @@
       <c r="HN9" t="n">
         <v>1</v>
       </c>
+      <c r="HO9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7052,6 +7079,9 @@
       <c r="HN10" t="n">
         <v>14</v>
       </c>
+      <c r="HO10" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7722,6 +7752,9 @@
       <c r="HN11" t="n">
         <v>189</v>
       </c>
+      <c r="HO11" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8392,6 +8425,9 @@
       <c r="HN12" t="n">
         <v>129</v>
       </c>
+      <c r="HO12" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9062,6 +9098,9 @@
       <c r="HN13" t="n">
         <v>318</v>
       </c>
+      <c r="HO13" t="n">
+        <v>264</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9732,6 +9771,9 @@
       <c r="HN14" t="n">
         <v>1.47</v>
       </c>
+      <c r="HO14" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10402,6 +10444,9 @@
       <c r="HN15" t="n">
         <v>76</v>
       </c>
+      <c r="HO15" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11072,6 +11117,9 @@
       <c r="HN16" t="n">
         <v>34</v>
       </c>
+      <c r="HO16" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11742,6 +11790,9 @@
       <c r="HN17" t="n">
         <v>25</v>
       </c>
+      <c r="HO17" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12412,6 +12463,9 @@
       <c r="HN18" t="n">
         <v>19</v>
       </c>
+      <c r="HO18" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13082,6 +13136,9 @@
       <c r="HN19" t="n">
         <v>23</v>
       </c>
+      <c r="HO19" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13752,6 +13809,9 @@
       <c r="HN20" t="n">
         <v>11</v>
       </c>
+      <c r="HO20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14422,6 +14482,9 @@
       <c r="HN21" t="n">
         <v>6</v>
       </c>
+      <c r="HO21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15092,6 +15155,9 @@
       <c r="HN22" t="n">
         <v>3</v>
       </c>
+      <c r="HO22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15762,6 +15828,9 @@
       <c r="HN23" t="n">
         <v>2</v>
       </c>
+      <c r="HO23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16432,6 +16501,9 @@
       <c r="HN24" t="n">
         <v>16</v>
       </c>
+      <c r="HO24" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17102,6 +17174,9 @@
       <c r="HN25" t="n">
         <v>68.8</v>
       </c>
+      <c r="HO25" t="n">
+        <v>44.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17772,6 +17847,9 @@
       <c r="HN26" t="n">
         <v>28.91</v>
       </c>
+      <c r="HO26" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18442,6 +18520,9 @@
       <c r="HN27" t="n">
         <v>19.88</v>
       </c>
+      <c r="HO27" t="n">
+        <v>14.67</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19112,6 +19193,9 @@
       <c r="HN28" t="n">
         <v>22</v>
       </c>
+      <c r="HO28" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19782,6 +19866,9 @@
       <c r="HN29" t="n">
         <v>55</v>
       </c>
+      <c r="HO29" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20452,6 +20539,9 @@
       <c r="HN30" t="n">
         <v>38</v>
       </c>
+      <c r="HO30" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21122,6 +21212,9 @@
       <c r="HN31" t="n">
         <v>35</v>
       </c>
+      <c r="HO31" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21792,6 +21885,9 @@
       <c r="HN32" t="n">
         <v>2.19</v>
       </c>
+      <c r="HO32" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22462,6 +22558,9 @@
       <c r="HN33" t="n">
         <v>3.18</v>
       </c>
+      <c r="HO33" t="n">
+        <v>5.62</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23132,6 +23231,9 @@
       <c r="HN34" t="n">
         <v>40</v>
       </c>
+      <c r="HO34" t="n">
+        <v>37.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23802,6 +23904,9 @@
       <c r="HN35" t="n">
         <v>31.4</v>
       </c>
+      <c r="HO35" t="n">
+        <v>17.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24472,6 +24577,9 @@
       <c r="HN36" t="n">
         <v>188.5</v>
       </c>
+      <c r="HO36" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25142,6 +25250,9 @@
       <c r="HN37" t="n">
         <v>87.90000000000001</v>
       </c>
+      <c r="HO37" t="n">
+        <v>87.59999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25812,6 +25923,9 @@
       <c r="HN38" t="n">
         <v>27.91</v>
       </c>
+      <c r="HO38" t="n">
+        <v>27.74</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26482,6 +26596,9 @@
       <c r="HN39" t="n">
         <v>139.6</v>
       </c>
+      <c r="HO39" t="n">
+        <v>137.1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27152,6 +27269,9 @@
       <c r="HN40" t="n">
         <v>3</v>
       </c>
+      <c r="HO40" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27822,6 +27942,9 @@
       <c r="HN41" t="n">
         <v>7</v>
       </c>
+      <c r="HO41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28492,6 +28615,9 @@
       <c r="HN42" t="n">
         <v>1</v>
       </c>
+      <c r="HO42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29162,6 +29288,9 @@
       <c r="HN43" t="n">
         <v>11</v>
       </c>
+      <c r="HO43" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29832,6 +29961,9 @@
       <c r="HN44" t="n">
         <v>108</v>
       </c>
+      <c r="HO44" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30502,6 +30634,9 @@
       <c r="HN45" t="n">
         <v>196</v>
       </c>
+      <c r="HO45" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31172,6 +31307,9 @@
       <c r="HN46" t="n">
         <v>243</v>
       </c>
+      <c r="HO46" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31842,6 +31980,9 @@
       <c r="HN47" t="n">
         <v>76.40000000000001</v>
       </c>
+      <c r="HO47" t="n">
+        <v>63.6</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32512,6 +32653,9 @@
       <c r="HN48" t="n">
         <v>55</v>
       </c>
+      <c r="HO48" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33182,6 +33326,9 @@
       <c r="HN49" t="n">
         <v>3</v>
       </c>
+      <c r="HO49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -33852,6 +33999,9 @@
       <c r="HN50" t="n">
         <v>5</v>
       </c>
+      <c r="HO50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34522,6 +34672,9 @@
       <c r="HN51" t="n">
         <v>22</v>
       </c>
+      <c r="HO51" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35192,6 +35345,9 @@
       <c r="HN52" t="n">
         <v>38</v>
       </c>
+      <c r="HO52" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -35862,6 +36018,9 @@
       <c r="HN53" t="n">
         <v>37</v>
       </c>
+      <c r="HO53" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -36532,6 +36691,9 @@
       <c r="HN54" t="n">
         <v>0</v>
       </c>
+      <c r="HO54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -37202,6 +37364,9 @@
       <c r="HN55" t="n">
         <v>6</v>
       </c>
+      <c r="HO55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -37872,6 +38037,9 @@
       <c r="HN56" t="n">
         <v>54.5</v>
       </c>
+      <c r="HO56" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -38542,6 +38710,9 @@
       <c r="HN57" t="n">
         <v>171</v>
       </c>
+      <c r="HO57" t="n">
+        <v>181</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -39212,6 +39383,9 @@
       <c r="HN58" t="n">
         <v>126</v>
       </c>
+      <c r="HO58" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -39882,6 +40056,9 @@
       <c r="HN59" t="n">
         <v>297</v>
       </c>
+      <c r="HO59" t="n">
+        <v>329</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -40552,6 +40729,9 @@
       <c r="HN60" t="n">
         <v>1.36</v>
       </c>
+      <c r="HO60" t="n">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -41222,6 +41402,9 @@
       <c r="HN61" t="n">
         <v>74</v>
       </c>
+      <c r="HO61" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -41892,6 +42075,9 @@
       <c r="HN62" t="n">
         <v>27</v>
       </c>
+      <c r="HO62" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -42562,6 +42748,9 @@
       <c r="HN63" t="n">
         <v>11</v>
       </c>
+      <c r="HO63" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -43232,6 +43421,9 @@
       <c r="HN64" t="n">
         <v>23</v>
       </c>
+      <c r="HO64" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -43902,6 +44094,9 @@
       <c r="HN65" t="n">
         <v>19</v>
       </c>
+      <c r="HO65" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -44572,6 +44767,9 @@
       <c r="HN66" t="n">
         <v>5</v>
       </c>
+      <c r="HO66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -45242,6 +45440,9 @@
       <c r="HN67" t="n">
         <v>4</v>
       </c>
+      <c r="HO67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -45912,6 +46113,9 @@
       <c r="HN68" t="n">
         <v>7</v>
       </c>
+      <c r="HO68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -46582,6 +46786,9 @@
       <c r="HN69" t="n">
         <v>2</v>
       </c>
+      <c r="HO69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -47252,6 +47459,9 @@
       <c r="HN70" t="n">
         <v>14</v>
       </c>
+      <c r="HO70" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -47922,6 +48132,9 @@
       <c r="HN71" t="n">
         <v>35.7</v>
       </c>
+      <c r="HO71" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -48592,6 +48805,9 @@
       <c r="HN72" t="n">
         <v>59.4</v>
       </c>
+      <c r="HO72" t="n">
+        <v>41.12</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -49262,6 +49478,9 @@
       <c r="HN73" t="n">
         <v>21.21</v>
       </c>
+      <c r="HO73" t="n">
+        <v>23.5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -49932,6 +50151,9 @@
       <c r="HN74" t="n">
         <v>17</v>
       </c>
+      <c r="HO74" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -50602,6 +50824,9 @@
       <c r="HN75" t="n">
         <v>59</v>
       </c>
+      <c r="HO75" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -51272,6 +51497,9 @@
       <c r="HN76" t="n">
         <v>24</v>
       </c>
+      <c r="HO76" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -51942,6 +52170,9 @@
       <c r="HN77" t="n">
         <v>43</v>
       </c>
+      <c r="HO77" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -52612,6 +52843,9 @@
       <c r="HN78" t="n">
         <v>3.07</v>
       </c>
+      <c r="HO78" t="n">
+        <v>2.29</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -53282,6 +53516,9 @@
       <c r="HN79" t="n">
         <v>8.6</v>
       </c>
+      <c r="HO79" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -53952,6 +54189,9 @@
       <c r="HN80" t="n">
         <v>27.9</v>
       </c>
+      <c r="HO80" t="n">
+        <v>40.6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -54622,6 +54862,9 @@
       <c r="HN81" t="n">
         <v>11.6</v>
       </c>
+      <c r="HO81" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -55292,6 +55535,9 @@
       <c r="HN82" t="n">
         <v>185</v>
       </c>
+      <c r="HO82" t="n">
+        <v>188.2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -55962,6 +56208,9 @@
       <c r="HN83" t="n">
         <v>84.90000000000001</v>
       </c>
+      <c r="HO83" t="n">
+        <v>86.8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -56632,6 +56881,9 @@
       <c r="HN84" t="n">
         <v>26.24</v>
       </c>
+      <c r="HO84" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -57302,6 +57554,9 @@
       <c r="HN85" t="n">
         <v>110.4</v>
       </c>
+      <c r="HO85" t="n">
+        <v>98.90000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -57972,6 +58227,9 @@
       <c r="HN86" t="n">
         <v>7</v>
       </c>
+      <c r="HO86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -58642,6 +58900,9 @@
       <c r="HN87" t="n">
         <v>5</v>
       </c>
+      <c r="HO87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -59312,6 +59573,9 @@
       <c r="HN88" t="n">
         <v>2</v>
       </c>
+      <c r="HO88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -59982,6 +60246,9 @@
       <c r="HN89" t="n">
         <v>8</v>
       </c>
+      <c r="HO89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -60652,6 +60919,9 @@
       <c r="HN90" t="n">
         <v>121</v>
       </c>
+      <c r="HO90" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -61322,6 +61592,9 @@
       <c r="HN91" t="n">
         <v>175</v>
       </c>
+      <c r="HO91" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -61992,6 +62265,9 @@
       <c r="HN92" t="n">
         <v>208</v>
       </c>
+      <c r="HO92" t="n">
+        <v>225</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -62662,6 +62938,9 @@
       <c r="HN93" t="n">
         <v>70</v>
       </c>
+      <c r="HO93" t="n">
+        <v>68.40000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -63332,6 +63611,9 @@
       <c r="HN94" t="n">
         <v>59</v>
       </c>
+      <c r="HO94" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -64002,6 +64284,9 @@
       <c r="HN95" t="n">
         <v>9</v>
       </c>
+      <c r="HO95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -64672,6 +64957,9 @@
       <c r="HN96" t="n">
         <v>12</v>
       </c>
+      <c r="HO96" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -65342,6 +65630,9 @@
       <c r="HN97" t="n">
         <v>17</v>
       </c>
+      <c r="HO97" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -66012,6 +66303,9 @@
       <c r="HN98" t="n">
         <v>24</v>
       </c>
+      <c r="HO98" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -66682,6 +66976,9 @@
       <c r="HN99" t="n">
         <v>33</v>
       </c>
+      <c r="HO99" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -67352,6 +67649,9 @@
       <c r="HN100" t="n">
         <v>5</v>
       </c>
+      <c r="HO100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -68022,6 +68322,9 @@
       <c r="HN101" t="n">
         <v>4</v>
       </c>
+      <c r="HO101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -68692,8 +68995,11 @@
       <c r="HN102" t="n">
         <v>80</v>
       </c>
+      <c r="HO102" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Hawthorn_stats.xlsx
+++ b/Hawthorn_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HO102"/>
+  <dimension ref="A1:HP102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1025,6 +1025,9 @@
       <c r="HO1" t="n">
         <v>10152</v>
       </c>
+      <c r="HP1" t="n">
+        <v>10190</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1698,6 +1701,9 @@
       <c r="HO2" t="n">
         <v>2020</v>
       </c>
+      <c r="HP2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2371,6 +2377,9 @@
       <c r="HO3" t="n">
         <v>4</v>
       </c>
+      <c r="HP3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3044,6 +3053,9 @@
       <c r="HO4" t="n">
         <v>0</v>
       </c>
+      <c r="HP4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3717,6 +3729,9 @@
       <c r="HO5" t="n">
         <v>0</v>
       </c>
+      <c r="HP5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4390,6 +4405,9 @@
       <c r="HO6" t="n">
         <v>58</v>
       </c>
+      <c r="HP6" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5063,6 +5081,9 @@
       <c r="HO7" t="n">
         <v>54</v>
       </c>
+      <c r="HP7" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5736,6 +5757,9 @@
       <c r="HO8" t="n">
         <v>4</v>
       </c>
+      <c r="HP8" t="n">
+        <v>-34</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6409,6 +6433,9 @@
       <c r="HO9" t="n">
         <v>1</v>
       </c>
+      <c r="HP9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7082,6 +7109,9 @@
       <c r="HO10" t="n">
         <v>12</v>
       </c>
+      <c r="HP10" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7755,6 +7785,9 @@
       <c r="HO11" t="n">
         <v>152</v>
       </c>
+      <c r="HP11" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8428,6 +8461,9 @@
       <c r="HO12" t="n">
         <v>112</v>
       </c>
+      <c r="HP12" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9101,6 +9137,9 @@
       <c r="HO13" t="n">
         <v>264</v>
       </c>
+      <c r="HP13" t="n">
+        <v>261</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9774,6 +9813,9 @@
       <c r="HO14" t="n">
         <v>1.36</v>
       </c>
+      <c r="HP14" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10447,6 +10489,9 @@
       <c r="HO15" t="n">
         <v>43</v>
       </c>
+      <c r="HP15" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11120,6 +11165,9 @@
       <c r="HO16" t="n">
         <v>69</v>
       </c>
+      <c r="HP16" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11793,6 +11841,9 @@
       <c r="HO17" t="n">
         <v>29</v>
       </c>
+      <c r="HP17" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12466,6 +12517,9 @@
       <c r="HO18" t="n">
         <v>12</v>
       </c>
+      <c r="HP18" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13139,6 +13193,9 @@
       <c r="HO19" t="n">
         <v>21</v>
       </c>
+      <c r="HP19" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13812,6 +13869,9 @@
       <c r="HO20" t="n">
         <v>8</v>
       </c>
+      <c r="HP20" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14485,6 +14545,9 @@
       <c r="HO21" t="n">
         <v>4</v>
       </c>
+      <c r="HP21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15158,6 +15221,9 @@
       <c r="HO22" t="n">
         <v>9</v>
       </c>
+      <c r="HP22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15831,6 +15897,9 @@
       <c r="HO23" t="n">
         <v>1</v>
       </c>
+      <c r="HP23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16504,6 +16573,9 @@
       <c r="HO24" t="n">
         <v>18</v>
       </c>
+      <c r="HP24" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17177,6 +17249,9 @@
       <c r="HO25" t="n">
         <v>44.4</v>
       </c>
+      <c r="HP25" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17850,6 +17925,9 @@
       <c r="HO26" t="n">
         <v>33</v>
       </c>
+      <c r="HP26" t="n">
+        <v>37.29</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18523,6 +18601,9 @@
       <c r="HO27" t="n">
         <v>14.67</v>
       </c>
+      <c r="HP27" t="n">
+        <v>18.64</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19196,6 +19277,9 @@
       <c r="HO28" t="n">
         <v>27</v>
       </c>
+      <c r="HP28" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19869,6 +19953,9 @@
       <c r="HO29" t="n">
         <v>44</v>
       </c>
+      <c r="HP29" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20542,6 +20629,9 @@
       <c r="HO30" t="n">
         <v>23</v>
       </c>
+      <c r="HP30" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21215,6 +21305,9 @@
       <c r="HO31" t="n">
         <v>45</v>
       </c>
+      <c r="HP31" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21888,6 +21981,9 @@
       <c r="HO32" t="n">
         <v>2.5</v>
       </c>
+      <c r="HP32" t="n">
+        <v>2.71</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22561,6 +22657,9 @@
       <c r="HO33" t="n">
         <v>5.62</v>
       </c>
+      <c r="HP33" t="n">
+        <v>5.43</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23234,6 +23333,9 @@
       <c r="HO34" t="n">
         <v>37.8</v>
       </c>
+      <c r="HP34" t="n">
+        <v>28.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23907,6 +24009,9 @@
       <c r="HO35" t="n">
         <v>17.8</v>
       </c>
+      <c r="HP35" t="n">
+        <v>18.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24580,6 +24685,9 @@
       <c r="HO36" t="n">
         <v>188.5</v>
       </c>
+      <c r="HP36" t="n">
+        <v>188.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25253,6 +25361,9 @@
       <c r="HO37" t="n">
         <v>87.59999999999999</v>
       </c>
+      <c r="HP37" t="n">
+        <v>87.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25926,6 +26037,9 @@
       <c r="HO38" t="n">
         <v>27.74</v>
       </c>
+      <c r="HP38" t="n">
+        <v>27.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26599,6 +26713,9 @@
       <c r="HO39" t="n">
         <v>137.1</v>
       </c>
+      <c r="HP39" t="n">
+        <v>136.6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27272,6 +27389,9 @@
       <c r="HO40" t="n">
         <v>4</v>
       </c>
+      <c r="HP40" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27945,6 +28065,9 @@
       <c r="HO41" t="n">
         <v>6</v>
       </c>
+      <c r="HP41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28618,6 +28741,9 @@
       <c r="HO42" t="n">
         <v>1</v>
       </c>
+      <c r="HP42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29291,6 +29417,9 @@
       <c r="HO43" t="n">
         <v>11</v>
       </c>
+      <c r="HP43" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29964,6 +30093,9 @@
       <c r="HO44" t="n">
         <v>112</v>
       </c>
+      <c r="HP44" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30637,6 +30769,9 @@
       <c r="HO45" t="n">
         <v>142</v>
       </c>
+      <c r="HP45" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31310,6 +31445,9 @@
       <c r="HO46" t="n">
         <v>168</v>
       </c>
+      <c r="HP46" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31983,6 +32121,9 @@
       <c r="HO47" t="n">
         <v>63.6</v>
       </c>
+      <c r="HP47" t="n">
+        <v>69.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32656,6 +32797,9 @@
       <c r="HO48" t="n">
         <v>44</v>
       </c>
+      <c r="HP48" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33329,6 +33473,9 @@
       <c r="HO49" t="n">
         <v>8</v>
       </c>
+      <c r="HP49" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34002,6 +34149,9 @@
       <c r="HO50" t="n">
         <v>8</v>
       </c>
+      <c r="HP50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34675,6 +34825,9 @@
       <c r="HO51" t="n">
         <v>27</v>
       </c>
+      <c r="HP51" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35348,6 +35501,9 @@
       <c r="HO52" t="n">
         <v>23</v>
       </c>
+      <c r="HP52" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36021,6 +36177,9 @@
       <c r="HO53" t="n">
         <v>64</v>
       </c>
+      <c r="HP53" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -36694,6 +36853,9 @@
       <c r="HO54" t="n">
         <v>4</v>
       </c>
+      <c r="HP54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -37367,6 +37529,9 @@
       <c r="HO55" t="n">
         <v>4</v>
       </c>
+      <c r="HP55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38040,6 +38205,9 @@
       <c r="HO56" t="n">
         <v>50</v>
       </c>
+      <c r="HP56" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -38713,6 +38881,9 @@
       <c r="HO57" t="n">
         <v>181</v>
       </c>
+      <c r="HP57" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -39386,6 +39557,9 @@
       <c r="HO58" t="n">
         <v>148</v>
       </c>
+      <c r="HP58" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40059,6 +40233,9 @@
       <c r="HO59" t="n">
         <v>329</v>
       </c>
+      <c r="HP59" t="n">
+        <v>343</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -40732,6 +40909,9 @@
       <c r="HO60" t="n">
         <v>1.22</v>
       </c>
+      <c r="HP60" t="n">
+        <v>1.52</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -41405,6 +41585,9 @@
       <c r="HO61" t="n">
         <v>65</v>
       </c>
+      <c r="HP61" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -42078,6 +42261,9 @@
       <c r="HO62" t="n">
         <v>47</v>
       </c>
+      <c r="HP62" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -42751,6 +42937,9 @@
       <c r="HO63" t="n">
         <v>33</v>
       </c>
+      <c r="HP63" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -43424,6 +43613,9 @@
       <c r="HO64" t="n">
         <v>21</v>
       </c>
+      <c r="HP64" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -44097,6 +44289,9 @@
       <c r="HO65" t="n">
         <v>12</v>
       </c>
+      <c r="HP65" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -44770,6 +44965,9 @@
       <c r="HO66" t="n">
         <v>8</v>
       </c>
+      <c r="HP66" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -45443,6 +45641,9 @@
       <c r="HO67" t="n">
         <v>4</v>
       </c>
+      <c r="HP67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -46116,6 +46317,9 @@
       <c r="HO68" t="n">
         <v>5</v>
       </c>
+      <c r="HP68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -46789,6 +46993,9 @@
       <c r="HO69" t="n">
         <v>1</v>
       </c>
+      <c r="HP69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -47462,6 +47669,9 @@
       <c r="HO70" t="n">
         <v>14</v>
       </c>
+      <c r="HP70" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -48135,6 +48345,9 @@
       <c r="HO71" t="n">
         <v>57.1</v>
       </c>
+      <c r="HP71" t="n">
+        <v>72.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -48808,6 +49021,9 @@
       <c r="HO72" t="n">
         <v>41.12</v>
       </c>
+      <c r="HP72" t="n">
+        <v>26.38</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -49481,6 +49697,9 @@
       <c r="HO73" t="n">
         <v>23.5</v>
       </c>
+      <c r="HP73" t="n">
+        <v>19.06</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -50154,6 +50373,9 @@
       <c r="HO74" t="n">
         <v>42</v>
       </c>
+      <c r="HP74" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -50827,6 +51049,9 @@
       <c r="HO75" t="n">
         <v>43</v>
       </c>
+      <c r="HP75" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -51500,6 +51725,9 @@
       <c r="HO76" t="n">
         <v>37</v>
       </c>
+      <c r="HP76" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -52173,6 +52401,9 @@
       <c r="HO77" t="n">
         <v>32</v>
       </c>
+      <c r="HP77" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -52846,6 +53077,9 @@
       <c r="HO78" t="n">
         <v>2.29</v>
       </c>
+      <c r="HP78" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -53519,6 +53753,9 @@
       <c r="HO79" t="n">
         <v>4</v>
       </c>
+      <c r="HP79" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -54192,6 +54429,9 @@
       <c r="HO80" t="n">
         <v>40.6</v>
       </c>
+      <c r="HP80" t="n">
+        <v>61.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -54865,6 +55105,9 @@
       <c r="HO81" t="n">
         <v>25</v>
       </c>
+      <c r="HP81" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -55538,6 +55781,9 @@
       <c r="HO82" t="n">
         <v>188.2</v>
       </c>
+      <c r="HP82" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -56211,6 +56457,9 @@
       <c r="HO83" t="n">
         <v>86.8</v>
       </c>
+      <c r="HP83" t="n">
+        <v>87.90000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -56884,6 +57133,9 @@
       <c r="HO84" t="n">
         <v>25.8</v>
       </c>
+      <c r="HP84" t="n">
+        <v>26.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -57557,6 +57809,9 @@
       <c r="HO85" t="n">
         <v>98.90000000000001</v>
       </c>
+      <c r="HP85" t="n">
+        <v>102.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -58230,6 +58485,9 @@
       <c r="HO86" t="n">
         <v>7</v>
       </c>
+      <c r="HP86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -58903,6 +59161,9 @@
       <c r="HO87" t="n">
         <v>4</v>
       </c>
+      <c r="HP87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -59576,6 +59837,9 @@
       <c r="HO88" t="n">
         <v>5</v>
       </c>
+      <c r="HP88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -60249,6 +60513,9 @@
       <c r="HO89" t="n">
         <v>6</v>
       </c>
+      <c r="HP89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -60922,6 +61189,9 @@
       <c r="HO90" t="n">
         <v>141</v>
       </c>
+      <c r="HP90" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -61595,6 +61865,9 @@
       <c r="HO91" t="n">
         <v>186</v>
       </c>
+      <c r="HP91" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -62268,6 +62541,9 @@
       <c r="HO92" t="n">
         <v>225</v>
       </c>
+      <c r="HP92" t="n">
+        <v>255</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -62941,6 +63217,9 @@
       <c r="HO93" t="n">
         <v>68.40000000000001</v>
       </c>
+      <c r="HP93" t="n">
+        <v>74.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -63614,6 +63893,9 @@
       <c r="HO94" t="n">
         <v>43</v>
       </c>
+      <c r="HP94" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -64287,6 +64569,9 @@
       <c r="HO95" t="n">
         <v>9</v>
       </c>
+      <c r="HP95" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -64960,6 +65245,9 @@
       <c r="HO96" t="n">
         <v>6</v>
       </c>
+      <c r="HP96" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -65633,6 +65921,9 @@
       <c r="HO97" t="n">
         <v>42</v>
       </c>
+      <c r="HP97" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -66306,6 +66597,9 @@
       <c r="HO98" t="n">
         <v>37</v>
       </c>
+      <c r="HP98" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -66979,6 +67273,9 @@
       <c r="HO99" t="n">
         <v>34</v>
       </c>
+      <c r="HP99" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -67652,6 +67949,9 @@
       <c r="HO100" t="n">
         <v>2</v>
       </c>
+      <c r="HP100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -68325,6 +68625,9 @@
       <c r="HO101" t="n">
         <v>4</v>
       </c>
+      <c r="HP101" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -68998,6 +69301,9 @@
       <c r="HO102" t="n">
         <v>50</v>
       </c>
+      <c r="HP102" t="n">
+        <v>53.8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/Hawthorn_stats.xlsx
+++ b/Hawthorn_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HP102"/>
+  <dimension ref="A1:HS102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1028,6 +1028,15 @@
       <c r="HP1" t="n">
         <v>10190</v>
       </c>
+      <c r="HQ1" t="n">
+        <v>10210</v>
+      </c>
+      <c r="HR1" t="n">
+        <v>10224</v>
+      </c>
+      <c r="HS1" t="n">
+        <v>10230</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1704,6 +1713,15 @@
       <c r="HP2" t="n">
         <v>2020</v>
       </c>
+      <c r="HQ2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2380,6 +2398,15 @@
       <c r="HP3" t="n">
         <v>5</v>
       </c>
+      <c r="HQ3" t="n">
+        <v>6</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>7</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3056,6 +3083,15 @@
       <c r="HP4" t="n">
         <v>1</v>
       </c>
+      <c r="HQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3732,6 +3768,15 @@
       <c r="HP5" t="n">
         <v>0</v>
       </c>
+      <c r="HQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4408,6 +4453,15 @@
       <c r="HP6" t="n">
         <v>49</v>
       </c>
+      <c r="HQ6" t="n">
+        <v>27</v>
+      </c>
+      <c r="HR6" t="n">
+        <v>48</v>
+      </c>
+      <c r="HS6" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5084,6 +5138,15 @@
       <c r="HP7" t="n">
         <v>83</v>
       </c>
+      <c r="HQ7" t="n">
+        <v>59</v>
+      </c>
+      <c r="HR7" t="n">
+        <v>91</v>
+      </c>
+      <c r="HS7" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5760,6 +5823,15 @@
       <c r="HP8" t="n">
         <v>-34</v>
       </c>
+      <c r="HQ8" t="n">
+        <v>-32</v>
+      </c>
+      <c r="HR8" t="n">
+        <v>-43</v>
+      </c>
+      <c r="HS8" t="n">
+        <v>-7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6436,6 +6508,15 @@
       <c r="HP9" t="n">
         <v>0</v>
       </c>
+      <c r="HQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7112,6 +7193,15 @@
       <c r="HP10" t="n">
         <v>9</v>
       </c>
+      <c r="HQ10" t="n">
+        <v>4</v>
+      </c>
+      <c r="HR10" t="n">
+        <v>11</v>
+      </c>
+      <c r="HS10" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7788,6 +7878,15 @@
       <c r="HP11" t="n">
         <v>145</v>
       </c>
+      <c r="HQ11" t="n">
+        <v>195</v>
+      </c>
+      <c r="HR11" t="n">
+        <v>159</v>
+      </c>
+      <c r="HS11" t="n">
+        <v>178</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8464,6 +8563,15 @@
       <c r="HP12" t="n">
         <v>116</v>
       </c>
+      <c r="HQ12" t="n">
+        <v>123</v>
+      </c>
+      <c r="HR12" t="n">
+        <v>123</v>
+      </c>
+      <c r="HS12" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9140,6 +9248,15 @@
       <c r="HP13" t="n">
         <v>261</v>
       </c>
+      <c r="HQ13" t="n">
+        <v>318</v>
+      </c>
+      <c r="HR13" t="n">
+        <v>282</v>
+      </c>
+      <c r="HS13" t="n">
+        <v>280</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9816,6 +9933,15 @@
       <c r="HP14" t="n">
         <v>1.25</v>
       </c>
+      <c r="HQ14" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="HR14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="HS14" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10492,6 +10618,15 @@
       <c r="HP15" t="n">
         <v>58</v>
       </c>
+      <c r="HQ15" t="n">
+        <v>100</v>
+      </c>
+      <c r="HR15" t="n">
+        <v>83</v>
+      </c>
+      <c r="HS15" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11168,6 +11303,15 @@
       <c r="HP16" t="n">
         <v>49</v>
       </c>
+      <c r="HQ16" t="n">
+        <v>38</v>
+      </c>
+      <c r="HR16" t="n">
+        <v>35</v>
+      </c>
+      <c r="HS16" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11844,6 +11988,15 @@
       <c r="HP17" t="n">
         <v>38</v>
       </c>
+      <c r="HQ17" t="n">
+        <v>18</v>
+      </c>
+      <c r="HR17" t="n">
+        <v>18</v>
+      </c>
+      <c r="HS17" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12520,6 +12673,15 @@
       <c r="HP18" t="n">
         <v>12</v>
       </c>
+      <c r="HQ18" t="n">
+        <v>15</v>
+      </c>
+      <c r="HR18" t="n">
+        <v>16</v>
+      </c>
+      <c r="HS18" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13196,6 +13358,15 @@
       <c r="HP19" t="n">
         <v>26</v>
       </c>
+      <c r="HQ19" t="n">
+        <v>19</v>
+      </c>
+      <c r="HR19" t="n">
+        <v>17</v>
+      </c>
+      <c r="HS19" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13872,6 +14043,15 @@
       <c r="HP20" t="n">
         <v>7</v>
       </c>
+      <c r="HQ20" t="n">
+        <v>3</v>
+      </c>
+      <c r="HR20" t="n">
+        <v>7</v>
+      </c>
+      <c r="HS20" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14548,6 +14728,15 @@
       <c r="HP21" t="n">
         <v>5</v>
       </c>
+      <c r="HQ21" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR21" t="n">
+        <v>6</v>
+      </c>
+      <c r="HS21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15224,6 +15413,15 @@
       <c r="HP22" t="n">
         <v>4</v>
       </c>
+      <c r="HQ22" t="n">
+        <v>7</v>
+      </c>
+      <c r="HR22" t="n">
+        <v>4</v>
+      </c>
+      <c r="HS22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15900,6 +16098,15 @@
       <c r="HP23" t="n">
         <v>3</v>
       </c>
+      <c r="HQ23" t="n">
+        <v>2</v>
+      </c>
+      <c r="HR23" t="n">
+        <v>2</v>
+      </c>
+      <c r="HS23" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16576,6 +16783,15 @@
       <c r="HP24" t="n">
         <v>14</v>
       </c>
+      <c r="HQ24" t="n">
+        <v>12</v>
+      </c>
+      <c r="HR24" t="n">
+        <v>13</v>
+      </c>
+      <c r="HS24" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17252,6 +17468,15 @@
       <c r="HP25" t="n">
         <v>50</v>
       </c>
+      <c r="HQ25" t="n">
+        <v>25</v>
+      </c>
+      <c r="HR25" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="HS25" t="n">
+        <v>38.9</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17928,6 +18153,15 @@
       <c r="HP26" t="n">
         <v>37.29</v>
       </c>
+      <c r="HQ26" t="n">
+        <v>106</v>
+      </c>
+      <c r="HR26" t="n">
+        <v>40.29</v>
+      </c>
+      <c r="HS26" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18604,6 +18838,15 @@
       <c r="HP27" t="n">
         <v>18.64</v>
       </c>
+      <c r="HQ27" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="HR27" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="HS27" t="n">
+        <v>15.56</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19280,6 +19523,15 @@
       <c r="HP28" t="n">
         <v>33</v>
       </c>
+      <c r="HQ28" t="n">
+        <v>21</v>
+      </c>
+      <c r="HR28" t="n">
+        <v>18</v>
+      </c>
+      <c r="HS28" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19956,6 +20208,15 @@
       <c r="HP29" t="n">
         <v>53</v>
       </c>
+      <c r="HQ29" t="n">
+        <v>46</v>
+      </c>
+      <c r="HR29" t="n">
+        <v>43</v>
+      </c>
+      <c r="HS29" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20632,6 +20893,15 @@
       <c r="HP30" t="n">
         <v>13</v>
       </c>
+      <c r="HQ30" t="n">
+        <v>36</v>
+      </c>
+      <c r="HR30" t="n">
+        <v>37</v>
+      </c>
+      <c r="HS30" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21308,6 +21578,15 @@
       <c r="HP31" t="n">
         <v>38</v>
       </c>
+      <c r="HQ31" t="n">
+        <v>32</v>
+      </c>
+      <c r="HR31" t="n">
+        <v>32</v>
+      </c>
+      <c r="HS31" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21984,6 +22263,15 @@
       <c r="HP32" t="n">
         <v>2.71</v>
       </c>
+      <c r="HQ32" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="HR32" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="HS32" t="n">
+        <v>2.94</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22660,6 +22948,15 @@
       <c r="HP33" t="n">
         <v>5.43</v>
       </c>
+      <c r="HQ33" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="HR33" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="HS33" t="n">
+        <v>7.57</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23336,6 +23633,15 @@
       <c r="HP34" t="n">
         <v>28.9</v>
       </c>
+      <c r="HQ34" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="HR34" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="HS34" t="n">
+        <v>22.6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24012,6 +24318,15 @@
       <c r="HP35" t="n">
         <v>18.4</v>
       </c>
+      <c r="HQ35" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="HR35" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="HS35" t="n">
+        <v>13.2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24688,6 +25003,15 @@
       <c r="HP36" t="n">
         <v>188.2</v>
       </c>
+      <c r="HQ36" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="HR36" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="HS36" t="n">
+        <v>187.6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25364,6 +25688,15 @@
       <c r="HP37" t="n">
         <v>87.5</v>
       </c>
+      <c r="HQ37" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="HR37" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="HS37" t="n">
+        <v>86.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26040,6 +26373,15 @@
       <c r="HP38" t="n">
         <v>27.8</v>
       </c>
+      <c r="HQ38" t="n">
+        <v>27.16</v>
+      </c>
+      <c r="HR38" t="n">
+        <v>27</v>
+      </c>
+      <c r="HS38" t="n">
+        <v>26.74</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26716,6 +27058,15 @@
       <c r="HP39" t="n">
         <v>136.6</v>
       </c>
+      <c r="HQ39" t="n">
+        <v>124.5</v>
+      </c>
+      <c r="HR39" t="n">
+        <v>128</v>
+      </c>
+      <c r="HS39" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27392,6 +27743,15 @@
       <c r="HP40" t="n">
         <v>4</v>
       </c>
+      <c r="HQ40" t="n">
+        <v>4</v>
+      </c>
+      <c r="HR40" t="n">
+        <v>6</v>
+      </c>
+      <c r="HS40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28068,6 +28428,15 @@
       <c r="HP41" t="n">
         <v>6</v>
       </c>
+      <c r="HQ41" t="n">
+        <v>7</v>
+      </c>
+      <c r="HR41" t="n">
+        <v>5</v>
+      </c>
+      <c r="HS41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28744,6 +29113,15 @@
       <c r="HP42" t="n">
         <v>1</v>
       </c>
+      <c r="HQ42" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR42" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29420,6 +29798,15 @@
       <c r="HP43" t="n">
         <v>11</v>
       </c>
+      <c r="HQ43" t="n">
+        <v>10</v>
+      </c>
+      <c r="HR43" t="n">
+        <v>10</v>
+      </c>
+      <c r="HS43" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30096,6 +30483,15 @@
       <c r="HP44" t="n">
         <v>94</v>
       </c>
+      <c r="HQ44" t="n">
+        <v>107</v>
+      </c>
+      <c r="HR44" t="n">
+        <v>99</v>
+      </c>
+      <c r="HS44" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30772,6 +31168,15 @@
       <c r="HP45" t="n">
         <v>161</v>
       </c>
+      <c r="HQ45" t="n">
+        <v>206</v>
+      </c>
+      <c r="HR45" t="n">
+        <v>183</v>
+      </c>
+      <c r="HS45" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31448,6 +31853,15 @@
       <c r="HP46" t="n">
         <v>182</v>
       </c>
+      <c r="HQ46" t="n">
+        <v>237</v>
+      </c>
+      <c r="HR46" t="n">
+        <v>221</v>
+      </c>
+      <c r="HS46" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32124,6 +32538,15 @@
       <c r="HP47" t="n">
         <v>69.7</v>
       </c>
+      <c r="HQ47" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="HR47" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="HS47" t="n">
+        <v>54.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32800,6 +33223,15 @@
       <c r="HP48" t="n">
         <v>53</v>
       </c>
+      <c r="HQ48" t="n">
+        <v>46</v>
+      </c>
+      <c r="HR48" t="n">
+        <v>43</v>
+      </c>
+      <c r="HS48" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33476,6 +33908,15 @@
       <c r="HP49" t="n">
         <v>5</v>
       </c>
+      <c r="HQ49" t="n">
+        <v>9</v>
+      </c>
+      <c r="HR49" t="n">
+        <v>11</v>
+      </c>
+      <c r="HS49" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34152,6 +34593,15 @@
       <c r="HP50" t="n">
         <v>10</v>
       </c>
+      <c r="HQ50" t="n">
+        <v>7</v>
+      </c>
+      <c r="HR50" t="n">
+        <v>5</v>
+      </c>
+      <c r="HS50" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34828,6 +35278,15 @@
       <c r="HP51" t="n">
         <v>33</v>
       </c>
+      <c r="HQ51" t="n">
+        <v>21</v>
+      </c>
+      <c r="HR51" t="n">
+        <v>18</v>
+      </c>
+      <c r="HS51" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35504,6 +35963,15 @@
       <c r="HP52" t="n">
         <v>13</v>
       </c>
+      <c r="HQ52" t="n">
+        <v>36</v>
+      </c>
+      <c r="HR52" t="n">
+        <v>37</v>
+      </c>
+      <c r="HS52" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36180,6 +36648,15 @@
       <c r="HP53" t="n">
         <v>27</v>
       </c>
+      <c r="HQ53" t="n">
+        <v>48</v>
+      </c>
+      <c r="HR53" t="n">
+        <v>30</v>
+      </c>
+      <c r="HS53" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -36856,6 +37333,15 @@
       <c r="HP54" t="n">
         <v>3</v>
       </c>
+      <c r="HQ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR54" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -37532,6 +38018,15 @@
       <c r="HP55" t="n">
         <v>5</v>
       </c>
+      <c r="HQ55" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR55" t="n">
+        <v>6</v>
+      </c>
+      <c r="HS55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38208,6 +38703,15 @@
       <c r="HP56" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="HQ56" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="HR56" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="HS56" t="n">
+        <v>85.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -38884,6 +39388,15 @@
       <c r="HP57" t="n">
         <v>207</v>
       </c>
+      <c r="HQ57" t="n">
+        <v>170</v>
+      </c>
+      <c r="HR57" t="n">
+        <v>175</v>
+      </c>
+      <c r="HS57" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -39560,6 +40073,15 @@
       <c r="HP58" t="n">
         <v>136</v>
       </c>
+      <c r="HQ58" t="n">
+        <v>164</v>
+      </c>
+      <c r="HR58" t="n">
+        <v>141</v>
+      </c>
+      <c r="HS58" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40236,6 +40758,15 @@
       <c r="HP59" t="n">
         <v>343</v>
       </c>
+      <c r="HQ59" t="n">
+        <v>334</v>
+      </c>
+      <c r="HR59" t="n">
+        <v>316</v>
+      </c>
+      <c r="HS59" t="n">
+        <v>316</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -40912,6 +41443,15 @@
       <c r="HP60" t="n">
         <v>1.52</v>
       </c>
+      <c r="HQ60" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="HR60" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="HS60" t="n">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -41588,6 +42128,15 @@
       <c r="HP61" t="n">
         <v>120</v>
       </c>
+      <c r="HQ61" t="n">
+        <v>59</v>
+      </c>
+      <c r="HR61" t="n">
+        <v>79</v>
+      </c>
+      <c r="HS61" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -42264,6 +42813,15 @@
       <c r="HP62" t="n">
         <v>51</v>
       </c>
+      <c r="HQ62" t="n">
+        <v>44</v>
+      </c>
+      <c r="HR62" t="n">
+        <v>47</v>
+      </c>
+      <c r="HS62" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -42940,6 +43498,15 @@
       <c r="HP63" t="n">
         <v>22</v>
       </c>
+      <c r="HQ63" t="n">
+        <v>25</v>
+      </c>
+      <c r="HR63" t="n">
+        <v>30</v>
+      </c>
+      <c r="HS63" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -43616,6 +44183,15 @@
       <c r="HP64" t="n">
         <v>26</v>
       </c>
+      <c r="HQ64" t="n">
+        <v>19</v>
+      </c>
+      <c r="HR64" t="n">
+        <v>17</v>
+      </c>
+      <c r="HS64" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -44292,6 +44868,15 @@
       <c r="HP65" t="n">
         <v>12</v>
       </c>
+      <c r="HQ65" t="n">
+        <v>15</v>
+      </c>
+      <c r="HR65" t="n">
+        <v>16</v>
+      </c>
+      <c r="HS65" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -44968,6 +45553,15 @@
       <c r="HP66" t="n">
         <v>13</v>
       </c>
+      <c r="HQ66" t="n">
+        <v>8</v>
+      </c>
+      <c r="HR66" t="n">
+        <v>14</v>
+      </c>
+      <c r="HS66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -45644,6 +46238,15 @@
       <c r="HP67" t="n">
         <v>7</v>
       </c>
+      <c r="HQ67" t="n">
+        <v>5</v>
+      </c>
+      <c r="HR67" t="n">
+        <v>11</v>
+      </c>
+      <c r="HS67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -46320,6 +46923,15 @@
       <c r="HP68" t="n">
         <v>3</v>
       </c>
+      <c r="HQ68" t="n">
+        <v>4</v>
+      </c>
+      <c r="HR68" t="n">
+        <v>7</v>
+      </c>
+      <c r="HS68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -46996,6 +47608,15 @@
       <c r="HP69" t="n">
         <v>2</v>
       </c>
+      <c r="HQ69" t="n">
+        <v>7</v>
+      </c>
+      <c r="HR69" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -47672,6 +48293,15 @@
       <c r="HP70" t="n">
         <v>18</v>
       </c>
+      <c r="HQ70" t="n">
+        <v>19</v>
+      </c>
+      <c r="HR70" t="n">
+        <v>21</v>
+      </c>
+      <c r="HS70" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -48348,6 +48978,15 @@
       <c r="HP71" t="n">
         <v>72.2</v>
       </c>
+      <c r="HQ71" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="HR71" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="HS71" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49024,6 +49663,15 @@
       <c r="HP72" t="n">
         <v>26.38</v>
       </c>
+      <c r="HQ72" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="HR72" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="HS72" t="n">
+        <v>35.11</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -49700,6 +50348,15 @@
       <c r="HP73" t="n">
         <v>19.06</v>
       </c>
+      <c r="HQ73" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="HR73" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="HS73" t="n">
+        <v>21.07</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -50376,6 +51033,15 @@
       <c r="HP74" t="n">
         <v>25</v>
       </c>
+      <c r="HQ74" t="n">
+        <v>26</v>
+      </c>
+      <c r="HR74" t="n">
+        <v>31</v>
+      </c>
+      <c r="HS74" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51052,6 +51718,15 @@
       <c r="HP75" t="n">
         <v>43</v>
       </c>
+      <c r="HQ75" t="n">
+        <v>39</v>
+      </c>
+      <c r="HR75" t="n">
+        <v>43</v>
+      </c>
+      <c r="HS75" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -51728,6 +52403,15 @@
       <c r="HP76" t="n">
         <v>30</v>
       </c>
+      <c r="HQ76" t="n">
+        <v>29</v>
+      </c>
+      <c r="HR76" t="n">
+        <v>26</v>
+      </c>
+      <c r="HS76" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -52404,6 +53088,15 @@
       <c r="HP77" t="n">
         <v>26</v>
       </c>
+      <c r="HQ77" t="n">
+        <v>47</v>
+      </c>
+      <c r="HR77" t="n">
+        <v>54</v>
+      </c>
+      <c r="HS77" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -53080,6 +53773,15 @@
       <c r="HP78" t="n">
         <v>1.44</v>
       </c>
+      <c r="HQ78" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="HR78" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="HS78" t="n">
+        <v>3.27</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -53756,6 +54458,15 @@
       <c r="HP79" t="n">
         <v>2</v>
       </c>
+      <c r="HQ79" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="HR79" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="HS79" t="n">
+        <v>5.44</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -54432,6 +55143,15 @@
       <c r="HP80" t="n">
         <v>61.5</v>
       </c>
+      <c r="HQ80" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="HR80" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="HS80" t="n">
+        <v>30.6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -55108,6 +55828,15 @@
       <c r="HP81" t="n">
         <v>50</v>
       </c>
+      <c r="HQ81" t="n">
+        <v>17</v>
+      </c>
+      <c r="HR81" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="HS81" t="n">
+        <v>18.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -55784,6 +56513,15 @@
       <c r="HP82" t="n">
         <v>189</v>
       </c>
+      <c r="HQ82" t="n">
+        <v>189.3</v>
+      </c>
+      <c r="HR82" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="HS82" t="n">
+        <v>186.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -56460,6 +57198,15 @@
       <c r="HP83" t="n">
         <v>87.90000000000001</v>
       </c>
+      <c r="HQ83" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="HR83" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="HS83" t="n">
+        <v>83.09999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -57136,6 +57883,15 @@
       <c r="HP84" t="n">
         <v>26.8</v>
       </c>
+      <c r="HQ84" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="HR84" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="HS84" t="n">
+        <v>24.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -57812,6 +58568,15 @@
       <c r="HP85" t="n">
         <v>102.8</v>
       </c>
+      <c r="HQ85" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="HR85" t="n">
+        <v>83.09999999999999</v>
+      </c>
+      <c r="HS85" t="n">
+        <v>73.40000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -58488,6 +59253,15 @@
       <c r="HP86" t="n">
         <v>7</v>
       </c>
+      <c r="HQ86" t="n">
+        <v>8</v>
+      </c>
+      <c r="HR86" t="n">
+        <v>6</v>
+      </c>
+      <c r="HS86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -59164,6 +59938,15 @@
       <c r="HP87" t="n">
         <v>5</v>
       </c>
+      <c r="HQ87" t="n">
+        <v>3</v>
+      </c>
+      <c r="HR87" t="n">
+        <v>10</v>
+      </c>
+      <c r="HS87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -59840,6 +60623,15 @@
       <c r="HP88" t="n">
         <v>5</v>
       </c>
+      <c r="HQ88" t="n">
+        <v>6</v>
+      </c>
+      <c r="HR88" t="n">
+        <v>4</v>
+      </c>
+      <c r="HS88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -60516,6 +61308,15 @@
       <c r="HP89" t="n">
         <v>5</v>
       </c>
+      <c r="HQ89" t="n">
+        <v>5</v>
+      </c>
+      <c r="HR89" t="n">
+        <v>2</v>
+      </c>
+      <c r="HS89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -61192,6 +61993,15 @@
       <c r="HP90" t="n">
         <v>115</v>
       </c>
+      <c r="HQ90" t="n">
+        <v>124</v>
+      </c>
+      <c r="HR90" t="n">
+        <v>124</v>
+      </c>
+      <c r="HS90" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -61868,6 +62678,15 @@
       <c r="HP91" t="n">
         <v>228</v>
       </c>
+      <c r="HQ91" t="n">
+        <v>207</v>
+      </c>
+      <c r="HR91" t="n">
+        <v>192</v>
+      </c>
+      <c r="HS91" t="n">
+        <v>169</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -62544,6 +63363,15 @@
       <c r="HP92" t="n">
         <v>255</v>
       </c>
+      <c r="HQ92" t="n">
+        <v>248</v>
+      </c>
+      <c r="HR92" t="n">
+        <v>243</v>
+      </c>
+      <c r="HS92" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -63220,6 +64048,15 @@
       <c r="HP93" t="n">
         <v>74.3</v>
       </c>
+      <c r="HQ93" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="HR93" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="HS93" t="n">
+        <v>69.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -63896,6 +64733,15 @@
       <c r="HP94" t="n">
         <v>43</v>
       </c>
+      <c r="HQ94" t="n">
+        <v>39</v>
+      </c>
+      <c r="HR94" t="n">
+        <v>43</v>
+      </c>
+      <c r="HS94" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -64572,6 +65418,15 @@
       <c r="HP95" t="n">
         <v>13</v>
       </c>
+      <c r="HQ95" t="n">
+        <v>6</v>
+      </c>
+      <c r="HR95" t="n">
+        <v>19</v>
+      </c>
+      <c r="HS95" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -65248,6 +66103,15 @@
       <c r="HP96" t="n">
         <v>10</v>
       </c>
+      <c r="HQ96" t="n">
+        <v>6</v>
+      </c>
+      <c r="HR96" t="n">
+        <v>15</v>
+      </c>
+      <c r="HS96" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -65924,6 +66788,15 @@
       <c r="HP97" t="n">
         <v>25</v>
       </c>
+      <c r="HQ97" t="n">
+        <v>26</v>
+      </c>
+      <c r="HR97" t="n">
+        <v>31</v>
+      </c>
+      <c r="HS97" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -66600,6 +67473,15 @@
       <c r="HP98" t="n">
         <v>30</v>
       </c>
+      <c r="HQ98" t="n">
+        <v>29</v>
+      </c>
+      <c r="HR98" t="n">
+        <v>26</v>
+      </c>
+      <c r="HS98" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -67276,6 +68158,15 @@
       <c r="HP99" t="n">
         <v>36</v>
       </c>
+      <c r="HQ99" t="n">
+        <v>47</v>
+      </c>
+      <c r="HR99" t="n">
+        <v>33</v>
+      </c>
+      <c r="HS99" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -67952,6 +68843,15 @@
       <c r="HP100" t="n">
         <v>4</v>
       </c>
+      <c r="HQ100" t="n">
+        <v>3</v>
+      </c>
+      <c r="HR100" t="n">
+        <v>5</v>
+      </c>
+      <c r="HS100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -68628,6 +69528,15 @@
       <c r="HP101" t="n">
         <v>7</v>
       </c>
+      <c r="HQ101" t="n">
+        <v>5</v>
+      </c>
+      <c r="HR101" t="n">
+        <v>11</v>
+      </c>
+      <c r="HS101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -69304,6 +70213,15 @@
       <c r="HP102" t="n">
         <v>53.8</v>
       </c>
+      <c r="HQ102" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="HR102" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="HS102" t="n">
+        <v>44.4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/Hawthorn_stats.xlsx
+++ b/Hawthorn_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HS102"/>
+  <dimension ref="A1:HT102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1037,6 +1037,9 @@
       <c r="HS1" t="n">
         <v>10230</v>
       </c>
+      <c r="HT1" t="n">
+        <v>10237</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1722,6 +1725,9 @@
       <c r="HS2" t="n">
         <v>2020</v>
       </c>
+      <c r="HT2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2407,6 +2413,9 @@
       <c r="HS3" t="n">
         <v>8</v>
       </c>
+      <c r="HT3" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3092,6 +3101,9 @@
       <c r="HS4" t="n">
         <v>1</v>
       </c>
+      <c r="HT4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3777,6 +3789,9 @@
       <c r="HS5" t="n">
         <v>0</v>
       </c>
+      <c r="HT5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4462,6 +4477,9 @@
       <c r="HS6" t="n">
         <v>53</v>
       </c>
+      <c r="HT6" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5147,6 +5165,9 @@
       <c r="HS7" t="n">
         <v>60</v>
       </c>
+      <c r="HT7" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5832,6 +5853,9 @@
       <c r="HS8" t="n">
         <v>-7</v>
       </c>
+      <c r="HT8" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6517,6 +6541,9 @@
       <c r="HS9" t="n">
         <v>0</v>
       </c>
+      <c r="HT9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7202,6 +7229,9 @@
       <c r="HS10" t="n">
         <v>16</v>
       </c>
+      <c r="HT10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7887,6 +7917,9 @@
       <c r="HS11" t="n">
         <v>178</v>
       </c>
+      <c r="HT11" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8572,6 +8605,9 @@
       <c r="HS12" t="n">
         <v>102</v>
       </c>
+      <c r="HT12" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9257,6 +9293,9 @@
       <c r="HS13" t="n">
         <v>280</v>
       </c>
+      <c r="HT13" t="n">
+        <v>287</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9942,6 +9981,9 @@
       <c r="HS14" t="n">
         <v>1.75</v>
       </c>
+      <c r="HT14" t="n">
+        <v>1.39</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10627,6 +10669,9 @@
       <c r="HS15" t="n">
         <v>40</v>
       </c>
+      <c r="HT15" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11312,6 +11357,9 @@
       <c r="HS16" t="n">
         <v>56</v>
       </c>
+      <c r="HT16" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11997,6 +12045,9 @@
       <c r="HS17" t="n">
         <v>29</v>
       </c>
+      <c r="HT17" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12682,6 +12733,9 @@
       <c r="HS18" t="n">
         <v>13</v>
       </c>
+      <c r="HT18" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13367,6 +13421,9 @@
       <c r="HS19" t="n">
         <v>22</v>
       </c>
+      <c r="HT19" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14052,6 +14109,9 @@
       <c r="HS20" t="n">
         <v>7</v>
       </c>
+      <c r="HT20" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14737,6 +14797,9 @@
       <c r="HS21" t="n">
         <v>6</v>
       </c>
+      <c r="HT21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15422,6 +15485,9 @@
       <c r="HS22" t="n">
         <v>5</v>
       </c>
+      <c r="HT22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16107,6 +16173,9 @@
       <c r="HS23" t="n">
         <v>6</v>
       </c>
+      <c r="HT23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16792,6 +16861,9 @@
       <c r="HS24" t="n">
         <v>18</v>
       </c>
+      <c r="HT24" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17477,6 +17549,9 @@
       <c r="HS25" t="n">
         <v>38.9</v>
       </c>
+      <c r="HT25" t="n">
+        <v>73.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18162,6 +18237,9 @@
       <c r="HS26" t="n">
         <v>40</v>
       </c>
+      <c r="HT26" t="n">
+        <v>20.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18847,6 +18925,9 @@
       <c r="HS27" t="n">
         <v>15.56</v>
       </c>
+      <c r="HT27" t="n">
+        <v>15.11</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19532,6 +19613,9 @@
       <c r="HS28" t="n">
         <v>34</v>
       </c>
+      <c r="HT28" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20217,6 +20301,9 @@
       <c r="HS29" t="n">
         <v>76</v>
       </c>
+      <c r="HT29" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20902,6 +20989,9 @@
       <c r="HS30" t="n">
         <v>36</v>
       </c>
+      <c r="HT30" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21587,6 +21677,9 @@
       <c r="HS31" t="n">
         <v>53</v>
       </c>
+      <c r="HT31" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22272,6 +22365,9 @@
       <c r="HS32" t="n">
         <v>2.94</v>
       </c>
+      <c r="HT32" t="n">
+        <v>2.21</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22957,6 +23053,9 @@
       <c r="HS33" t="n">
         <v>7.57</v>
       </c>
+      <c r="HT33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23642,6 +23741,9 @@
       <c r="HS34" t="n">
         <v>22.6</v>
       </c>
+      <c r="HT34" t="n">
+        <v>45.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24327,6 +24429,9 @@
       <c r="HS35" t="n">
         <v>13.2</v>
       </c>
+      <c r="HT35" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25012,6 +25117,9 @@
       <c r="HS36" t="n">
         <v>187.6</v>
       </c>
+      <c r="HT36" t="n">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25697,6 +25805,9 @@
       <c r="HS37" t="n">
         <v>86.3</v>
       </c>
+      <c r="HT37" t="n">
+        <v>86.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26382,6 +26493,9 @@
       <c r="HS38" t="n">
         <v>26.74</v>
       </c>
+      <c r="HT38" t="n">
+        <v>27.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27067,6 +27181,9 @@
       <c r="HS39" t="n">
         <v>120</v>
       </c>
+      <c r="HT39" t="n">
+        <v>139.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27752,6 +27869,9 @@
       <c r="HS40" t="n">
         <v>8</v>
       </c>
+      <c r="HT40" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28437,6 +28557,9 @@
       <c r="HS41" t="n">
         <v>4</v>
       </c>
+      <c r="HT41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29122,6 +29245,9 @@
       <c r="HS42" t="n">
         <v>1</v>
       </c>
+      <c r="HT42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29807,6 +29933,9 @@
       <c r="HS43" t="n">
         <v>9</v>
       </c>
+      <c r="HT43" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30492,6 +30621,9 @@
       <c r="HS44" t="n">
         <v>144</v>
       </c>
+      <c r="HT44" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31177,6 +31309,9 @@
       <c r="HS45" t="n">
         <v>122</v>
       </c>
+      <c r="HT45" t="n">
+        <v>175</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31862,6 +31997,9 @@
       <c r="HS46" t="n">
         <v>152</v>
       </c>
+      <c r="HT46" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32547,6 +32685,9 @@
       <c r="HS47" t="n">
         <v>54.3</v>
       </c>
+      <c r="HT47" t="n">
+        <v>72.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33232,6 +33373,9 @@
       <c r="HS48" t="n">
         <v>76</v>
       </c>
+      <c r="HT48" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33917,6 +34061,9 @@
       <c r="HS49" t="n">
         <v>6</v>
       </c>
+      <c r="HT49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34602,6 +34749,9 @@
       <c r="HS50" t="n">
         <v>3</v>
       </c>
+      <c r="HT50" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35287,6 +35437,9 @@
       <c r="HS51" t="n">
         <v>34</v>
       </c>
+      <c r="HT51" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35972,6 +36125,9 @@
       <c r="HS52" t="n">
         <v>36</v>
       </c>
+      <c r="HT52" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36657,6 +36813,9 @@
       <c r="HS53" t="n">
         <v>63</v>
       </c>
+      <c r="HT53" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37342,6 +37501,9 @@
       <c r="HS54" t="n">
         <v>0</v>
       </c>
+      <c r="HT54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38027,6 +38189,9 @@
       <c r="HS55" t="n">
         <v>6</v>
       </c>
+      <c r="HT55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38712,6 +38877,9 @@
       <c r="HS56" t="n">
         <v>85.7</v>
       </c>
+      <c r="HT56" t="n">
+        <v>64.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39397,6 +39565,9 @@
       <c r="HS57" t="n">
         <v>193</v>
       </c>
+      <c r="HT57" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40082,6 +40253,9 @@
       <c r="HS58" t="n">
         <v>123</v>
       </c>
+      <c r="HT58" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40767,6 +40941,9 @@
       <c r="HS59" t="n">
         <v>316</v>
       </c>
+      <c r="HT59" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41452,6 +41629,9 @@
       <c r="HS60" t="n">
         <v>1.57</v>
       </c>
+      <c r="HT60" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -42137,6 +42317,9 @@
       <c r="HS61" t="n">
         <v>64</v>
       </c>
+      <c r="HT61" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -42822,6 +43005,9 @@
       <c r="HS62" t="n">
         <v>48</v>
       </c>
+      <c r="HT62" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -43507,6 +43693,9 @@
       <c r="HS63" t="n">
         <v>27</v>
       </c>
+      <c r="HT63" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44192,6 +44381,9 @@
       <c r="HS64" t="n">
         <v>22</v>
       </c>
+      <c r="HT64" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -44877,6 +45069,9 @@
       <c r="HS65" t="n">
         <v>13</v>
       </c>
+      <c r="HT65" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -45562,6 +45757,9 @@
       <c r="HS66" t="n">
         <v>9</v>
       </c>
+      <c r="HT66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -46247,6 +46445,9 @@
       <c r="HS67" t="n">
         <v>4</v>
       </c>
+      <c r="HT67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -46932,6 +47133,9 @@
       <c r="HS68" t="n">
         <v>6</v>
       </c>
+      <c r="HT68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -47617,6 +47821,9 @@
       <c r="HS69" t="n">
         <v>0</v>
       </c>
+      <c r="HT69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -48302,6 +48509,9 @@
       <c r="HS70" t="n">
         <v>15</v>
       </c>
+      <c r="HT70" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -48987,6 +49197,9 @@
       <c r="HS71" t="n">
         <v>60</v>
       </c>
+      <c r="HT71" t="n">
+        <v>69.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49672,6 +49885,9 @@
       <c r="HS72" t="n">
         <v>35.11</v>
       </c>
+      <c r="HT72" t="n">
+        <v>27.22</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -50357,6 +50573,9 @@
       <c r="HS73" t="n">
         <v>21.07</v>
       </c>
+      <c r="HT73" t="n">
+        <v>18.85</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -51042,6 +51261,9 @@
       <c r="HS74" t="n">
         <v>25</v>
       </c>
+      <c r="HT74" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51727,6 +51949,9 @@
       <c r="HS75" t="n">
         <v>51</v>
       </c>
+      <c r="HT75" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -52412,6 +52637,9 @@
       <c r="HS76" t="n">
         <v>45</v>
       </c>
+      <c r="HT76" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -53097,6 +53325,9 @@
       <c r="HS77" t="n">
         <v>49</v>
       </c>
+      <c r="HT77" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -53782,6 +54013,9 @@
       <c r="HS78" t="n">
         <v>3.27</v>
       </c>
+      <c r="HT78" t="n">
+        <v>2.77</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -54467,6 +54701,9 @@
       <c r="HS79" t="n">
         <v>5.44</v>
       </c>
+      <c r="HT79" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -55152,6 +55389,9 @@
       <c r="HS80" t="n">
         <v>30.6</v>
       </c>
+      <c r="HT80" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -55837,6 +56077,9 @@
       <c r="HS81" t="n">
         <v>18.4</v>
       </c>
+      <c r="HT81" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -56522,6 +56765,9 @@
       <c r="HS82" t="n">
         <v>186.3</v>
       </c>
+      <c r="HT82" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -57207,6 +57453,9 @@
       <c r="HS83" t="n">
         <v>83.09999999999999</v>
       </c>
+      <c r="HT83" t="n">
+        <v>87.2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -57892,6 +58141,9 @@
       <c r="HS84" t="n">
         <v>24.33</v>
       </c>
+      <c r="HT84" t="n">
+        <v>26.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -58577,6 +58829,9 @@
       <c r="HS85" t="n">
         <v>73.40000000000001</v>
       </c>
+      <c r="HT85" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -59262,6 +59517,9 @@
       <c r="HS86" t="n">
         <v>9</v>
       </c>
+      <c r="HT86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -59947,6 +60205,9 @@
       <c r="HS87" t="n">
         <v>5</v>
       </c>
+      <c r="HT87" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -60632,6 +60893,9 @@
       <c r="HS88" t="n">
         <v>6</v>
       </c>
+      <c r="HT88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -61317,6 +61581,9 @@
       <c r="HS89" t="n">
         <v>2</v>
       </c>
+      <c r="HT89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -62002,6 +62269,9 @@
       <c r="HS90" t="n">
         <v>134</v>
       </c>
+      <c r="HT90" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -62687,6 +62957,9 @@
       <c r="HS91" t="n">
         <v>169</v>
       </c>
+      <c r="HT91" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -63372,6 +63645,9 @@
       <c r="HS92" t="n">
         <v>220</v>
       </c>
+      <c r="HT92" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -64057,6 +64333,9 @@
       <c r="HS93" t="n">
         <v>69.59999999999999</v>
       </c>
+      <c r="HT93" t="n">
+        <v>68.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -64742,6 +65021,9 @@
       <c r="HS94" t="n">
         <v>51</v>
       </c>
+      <c r="HT94" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -65427,6 +65709,9 @@
       <c r="HS95" t="n">
         <v>8</v>
       </c>
+      <c r="HT95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -66112,6 +66397,9 @@
       <c r="HS96" t="n">
         <v>6</v>
       </c>
+      <c r="HT96" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -66797,6 +67085,9 @@
       <c r="HS97" t="n">
         <v>25</v>
       </c>
+      <c r="HT97" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -67482,6 +67773,9 @@
       <c r="HS98" t="n">
         <v>45</v>
       </c>
+      <c r="HT98" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -68167,6 +68461,9 @@
       <c r="HS99" t="n">
         <v>63</v>
       </c>
+      <c r="HT99" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -68852,6 +69149,9 @@
       <c r="HS100" t="n">
         <v>3</v>
       </c>
+      <c r="HT100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -69537,6 +69837,9 @@
       <c r="HS101" t="n">
         <v>4</v>
       </c>
+      <c r="HT101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -70222,8 +70525,11 @@
       <c r="HS102" t="n">
         <v>44.4</v>
       </c>
+      <c r="HT102" t="n">
+        <v>44.4</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Hawthorn_stats.xlsx
+++ b/Hawthorn_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HT102"/>
+  <dimension ref="A1:HV102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1040,6 +1040,12 @@
       <c r="HT1" t="n">
         <v>10237</v>
       </c>
+      <c r="HU1" t="n">
+        <v>10257</v>
+      </c>
+      <c r="HV1" t="n">
+        <v>10267</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1728,6 +1734,12 @@
       <c r="HT2" t="n">
         <v>2020</v>
       </c>
+      <c r="HU2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2416,6 +2428,12 @@
       <c r="HT3" t="n">
         <v>9</v>
       </c>
+      <c r="HU3" t="n">
+        <v>11</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3104,6 +3122,12 @@
       <c r="HT4" t="n">
         <v>1</v>
       </c>
+      <c r="HU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3792,6 +3816,12 @@
       <c r="HT5" t="n">
         <v>1</v>
       </c>
+      <c r="HU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4480,6 +4510,12 @@
       <c r="HT6" t="n">
         <v>89</v>
       </c>
+      <c r="HU6" t="n">
+        <v>32</v>
+      </c>
+      <c r="HV6" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5168,6 +5204,12 @@
       <c r="HT7" t="n">
         <v>58</v>
       </c>
+      <c r="HU7" t="n">
+        <v>48</v>
+      </c>
+      <c r="HV7" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5856,6 +5898,12 @@
       <c r="HT8" t="n">
         <v>31</v>
       </c>
+      <c r="HU8" t="n">
+        <v>-16</v>
+      </c>
+      <c r="HV8" t="n">
+        <v>-32</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6544,6 +6592,12 @@
       <c r="HT9" t="n">
         <v>1</v>
       </c>
+      <c r="HU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7232,6 +7286,12 @@
       <c r="HT10" t="n">
         <v>3</v>
       </c>
+      <c r="HU10" t="n">
+        <v>6</v>
+      </c>
+      <c r="HV10" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7920,6 +7980,12 @@
       <c r="HT11" t="n">
         <v>167</v>
       </c>
+      <c r="HU11" t="n">
+        <v>161</v>
+      </c>
+      <c r="HV11" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8608,6 +8674,12 @@
       <c r="HT12" t="n">
         <v>120</v>
       </c>
+      <c r="HU12" t="n">
+        <v>123</v>
+      </c>
+      <c r="HV12" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9296,6 +9368,12 @@
       <c r="HT13" t="n">
         <v>287</v>
       </c>
+      <c r="HU13" t="n">
+        <v>284</v>
+      </c>
+      <c r="HV13" t="n">
+        <v>311</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9984,6 +10062,12 @@
       <c r="HT14" t="n">
         <v>1.39</v>
       </c>
+      <c r="HU14" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="HV14" t="n">
+        <v>1.07</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10672,6 +10756,12 @@
       <c r="HT15" t="n">
         <v>68</v>
       </c>
+      <c r="HU15" t="n">
+        <v>64</v>
+      </c>
+      <c r="HV15" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11360,6 +11450,12 @@
       <c r="HT16" t="n">
         <v>43</v>
       </c>
+      <c r="HU16" t="n">
+        <v>41</v>
+      </c>
+      <c r="HV16" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12048,6 +12144,12 @@
       <c r="HT17" t="n">
         <v>42</v>
       </c>
+      <c r="HU17" t="n">
+        <v>25</v>
+      </c>
+      <c r="HV17" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12736,6 +12838,12 @@
       <c r="HT18" t="n">
         <v>21</v>
       </c>
+      <c r="HU18" t="n">
+        <v>14</v>
+      </c>
+      <c r="HV18" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13424,6 +13532,12 @@
       <c r="HT19" t="n">
         <v>24</v>
       </c>
+      <c r="HU19" t="n">
+        <v>15</v>
+      </c>
+      <c r="HV19" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14112,6 +14226,12 @@
       <c r="HT20" t="n">
         <v>14</v>
       </c>
+      <c r="HU20" t="n">
+        <v>4</v>
+      </c>
+      <c r="HV20" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14800,6 +14920,12 @@
       <c r="HT21" t="n">
         <v>9</v>
       </c>
+      <c r="HU21" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15488,6 +15614,12 @@
       <c r="HT22" t="n">
         <v>5</v>
       </c>
+      <c r="HU22" t="n">
+        <v>5</v>
+      </c>
+      <c r="HV22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16176,6 +16308,12 @@
       <c r="HT23" t="n">
         <v>0</v>
       </c>
+      <c r="HU23" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16864,6 +17002,12 @@
       <c r="HT24" t="n">
         <v>19</v>
       </c>
+      <c r="HU24" t="n">
+        <v>12</v>
+      </c>
+      <c r="HV24" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17552,6 +17696,12 @@
       <c r="HT25" t="n">
         <v>73.7</v>
       </c>
+      <c r="HU25" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="HV25" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18240,6 +18390,12 @@
       <c r="HT26" t="n">
         <v>20.5</v>
       </c>
+      <c r="HU26" t="n">
+        <v>71</v>
+      </c>
+      <c r="HV26" t="n">
+        <v>44.43</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18928,6 +19084,12 @@
       <c r="HT27" t="n">
         <v>15.11</v>
       </c>
+      <c r="HU27" t="n">
+        <v>23.67</v>
+      </c>
+      <c r="HV27" t="n">
+        <v>22.21</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19616,6 +19778,12 @@
       <c r="HT28" t="n">
         <v>23</v>
       </c>
+      <c r="HU28" t="n">
+        <v>27</v>
+      </c>
+      <c r="HV28" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20304,6 +20472,12 @@
       <c r="HT29" t="n">
         <v>50</v>
       </c>
+      <c r="HU29" t="n">
+        <v>47</v>
+      </c>
+      <c r="HV29" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20992,6 +21166,12 @@
       <c r="HT30" t="n">
         <v>25</v>
       </c>
+      <c r="HU30" t="n">
+        <v>29</v>
+      </c>
+      <c r="HV30" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21680,6 +21860,12 @@
       <c r="HT31" t="n">
         <v>42</v>
       </c>
+      <c r="HU31" t="n">
+        <v>33</v>
+      </c>
+      <c r="HV31" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22368,6 +22554,12 @@
       <c r="HT32" t="n">
         <v>2.21</v>
       </c>
+      <c r="HU32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="HV32" t="n">
+        <v>3.43</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23056,6 +23248,12 @@
       <c r="HT33" t="n">
         <v>3</v>
       </c>
+      <c r="HU33" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="HV33" t="n">
+        <v>6.86</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23744,6 +23942,12 @@
       <c r="HT34" t="n">
         <v>45.2</v>
       </c>
+      <c r="HU34" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="HV34" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24432,6 +24636,12 @@
       <c r="HT35" t="n">
         <v>33.3</v>
       </c>
+      <c r="HU35" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="HV35" t="n">
+        <v>14.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25120,6 +25330,12 @@
       <c r="HT36" t="n">
         <v>187.5</v>
       </c>
+      <c r="HU36" t="n">
+        <v>188</v>
+      </c>
+      <c r="HV36" t="n">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25808,6 +26024,12 @@
       <c r="HT37" t="n">
         <v>86.3</v>
       </c>
+      <c r="HU37" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="HV37" t="n">
+        <v>85.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26496,6 +26718,12 @@
       <c r="HT38" t="n">
         <v>27.41</v>
       </c>
+      <c r="HU38" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="HV38" t="n">
+        <v>26.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27184,6 +27412,12 @@
       <c r="HT39" t="n">
         <v>139.8</v>
       </c>
+      <c r="HU39" t="n">
+        <v>124.2</v>
+      </c>
+      <c r="HV39" t="n">
+        <v>121.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27872,6 +28106,12 @@
       <c r="HT40" t="n">
         <v>4</v>
       </c>
+      <c r="HU40" t="n">
+        <v>5</v>
+      </c>
+      <c r="HV40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28560,6 +28800,12 @@
       <c r="HT41" t="n">
         <v>4</v>
       </c>
+      <c r="HU41" t="n">
+        <v>4</v>
+      </c>
+      <c r="HV41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29248,6 +29494,12 @@
       <c r="HT42" t="n">
         <v>4</v>
       </c>
+      <c r="HU42" t="n">
+        <v>4</v>
+      </c>
+      <c r="HV42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29936,6 +30188,12 @@
       <c r="HT43" t="n">
         <v>10</v>
       </c>
+      <c r="HU43" t="n">
+        <v>9</v>
+      </c>
+      <c r="HV43" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30624,6 +30882,12 @@
       <c r="HT44" t="n">
         <v>121</v>
       </c>
+      <c r="HU44" t="n">
+        <v>115</v>
+      </c>
+      <c r="HV44" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31312,6 +31576,12 @@
       <c r="HT45" t="n">
         <v>175</v>
       </c>
+      <c r="HU45" t="n">
+        <v>171</v>
+      </c>
+      <c r="HV45" t="n">
+        <v>194</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32000,6 +32270,12 @@
       <c r="HT46" t="n">
         <v>207</v>
       </c>
+      <c r="HU46" t="n">
+        <v>195</v>
+      </c>
+      <c r="HV46" t="n">
+        <v>212</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32688,6 +32964,12 @@
       <c r="HT47" t="n">
         <v>72.09999999999999</v>
       </c>
+      <c r="HU47" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="HV47" t="n">
+        <v>68.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33376,6 +33658,12 @@
       <c r="HT48" t="n">
         <v>50</v>
       </c>
+      <c r="HU48" t="n">
+        <v>47</v>
+      </c>
+      <c r="HV48" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34064,6 +34352,12 @@
       <c r="HT49" t="n">
         <v>11</v>
       </c>
+      <c r="HU49" t="n">
+        <v>9</v>
+      </c>
+      <c r="HV49" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34752,6 +35046,12 @@
       <c r="HT50" t="n">
         <v>14</v>
       </c>
+      <c r="HU50" t="n">
+        <v>6</v>
+      </c>
+      <c r="HV50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35440,6 +35740,12 @@
       <c r="HT51" t="n">
         <v>23</v>
       </c>
+      <c r="HU51" t="n">
+        <v>27</v>
+      </c>
+      <c r="HV51" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36128,6 +36434,12 @@
       <c r="HT52" t="n">
         <v>25</v>
       </c>
+      <c r="HU52" t="n">
+        <v>29</v>
+      </c>
+      <c r="HV52" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36816,6 +37128,12 @@
       <c r="HT53" t="n">
         <v>36</v>
       </c>
+      <c r="HU53" t="n">
+        <v>59</v>
+      </c>
+      <c r="HV53" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37504,6 +37822,12 @@
       <c r="HT54" t="n">
         <v>3</v>
       </c>
+      <c r="HU54" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38192,6 +38516,12 @@
       <c r="HT55" t="n">
         <v>9</v>
       </c>
+      <c r="HU55" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV55" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38880,6 +39210,12 @@
       <c r="HT56" t="n">
         <v>64.3</v>
       </c>
+      <c r="HU56" t="n">
+        <v>75</v>
+      </c>
+      <c r="HV56" t="n">
+        <v>42.9</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39568,6 +39904,12 @@
       <c r="HT57" t="n">
         <v>147</v>
       </c>
+      <c r="HU57" t="n">
+        <v>204</v>
+      </c>
+      <c r="HV57" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40256,6 +40598,12 @@
       <c r="HT58" t="n">
         <v>98</v>
       </c>
+      <c r="HU58" t="n">
+        <v>176</v>
+      </c>
+      <c r="HV58" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40944,6 +41292,12 @@
       <c r="HT59" t="n">
         <v>245</v>
       </c>
+      <c r="HU59" t="n">
+        <v>380</v>
+      </c>
+      <c r="HV59" t="n">
+        <v>320</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41632,6 +41986,12 @@
       <c r="HT60" t="n">
         <v>1.5</v>
       </c>
+      <c r="HU60" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="HV60" t="n">
+        <v>1.62</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -42320,6 +42680,12 @@
       <c r="HT61" t="n">
         <v>53</v>
       </c>
+      <c r="HU61" t="n">
+        <v>84</v>
+      </c>
+      <c r="HV61" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -43008,6 +43374,12 @@
       <c r="HT62" t="n">
         <v>56</v>
       </c>
+      <c r="HU62" t="n">
+        <v>56</v>
+      </c>
+      <c r="HV62" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -43696,6 +44068,12 @@
       <c r="HT63" t="n">
         <v>18</v>
       </c>
+      <c r="HU63" t="n">
+        <v>31</v>
+      </c>
+      <c r="HV63" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44384,6 +44762,12 @@
       <c r="HT64" t="n">
         <v>24</v>
       </c>
+      <c r="HU64" t="n">
+        <v>15</v>
+      </c>
+      <c r="HV64" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -45072,6 +45456,12 @@
       <c r="HT65" t="n">
         <v>21</v>
       </c>
+      <c r="HU65" t="n">
+        <v>14</v>
+      </c>
+      <c r="HV65" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -45760,6 +46150,12 @@
       <c r="HT66" t="n">
         <v>9</v>
       </c>
+      <c r="HU66" t="n">
+        <v>7</v>
+      </c>
+      <c r="HV66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -46448,6 +46844,12 @@
       <c r="HT67" t="n">
         <v>4</v>
       </c>
+      <c r="HU67" t="n">
+        <v>6</v>
+      </c>
+      <c r="HV67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -47136,6 +47538,12 @@
       <c r="HT68" t="n">
         <v>3</v>
       </c>
+      <c r="HU68" t="n">
+        <v>5</v>
+      </c>
+      <c r="HV68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -47824,6 +48232,12 @@
       <c r="HT69" t="n">
         <v>1</v>
       </c>
+      <c r="HU69" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -48512,6 +48926,12 @@
       <c r="HT70" t="n">
         <v>13</v>
       </c>
+      <c r="HU70" t="n">
+        <v>13</v>
+      </c>
+      <c r="HV70" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -49200,6 +49620,12 @@
       <c r="HT71" t="n">
         <v>69.2</v>
       </c>
+      <c r="HU71" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="HV71" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49888,6 +50314,12 @@
       <c r="HT72" t="n">
         <v>27.22</v>
       </c>
+      <c r="HU72" t="n">
+        <v>54.29</v>
+      </c>
+      <c r="HV72" t="n">
+        <v>26.67</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -50576,6 +51008,12 @@
       <c r="HT73" t="n">
         <v>18.85</v>
       </c>
+      <c r="HU73" t="n">
+        <v>29.23</v>
+      </c>
+      <c r="HV73" t="n">
+        <v>15.24</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -51264,6 +51702,12 @@
       <c r="HT74" t="n">
         <v>35</v>
       </c>
+      <c r="HU74" t="n">
+        <v>25</v>
+      </c>
+      <c r="HV74" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51952,6 +52396,12 @@
       <c r="HT75" t="n">
         <v>46</v>
       </c>
+      <c r="HU75" t="n">
+        <v>45</v>
+      </c>
+      <c r="HV75" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -52640,6 +53090,12 @@
       <c r="HT76" t="n">
         <v>27</v>
       </c>
+      <c r="HU76" t="n">
+        <v>27</v>
+      </c>
+      <c r="HV76" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -53328,6 +53784,12 @@
       <c r="HT77" t="n">
         <v>36</v>
       </c>
+      <c r="HU77" t="n">
+        <v>37</v>
+      </c>
+      <c r="HV77" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -54016,6 +54478,12 @@
       <c r="HT78" t="n">
         <v>2.77</v>
       </c>
+      <c r="HU78" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="HV78" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -54704,6 +55172,12 @@
       <c r="HT79" t="n">
         <v>4</v>
       </c>
+      <c r="HU79" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="HV79" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -55392,6 +55866,12 @@
       <c r="HT80" t="n">
         <v>33.3</v>
       </c>
+      <c r="HU80" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="HV80" t="n">
+        <v>42.9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -56080,6 +56560,12 @@
       <c r="HT81" t="n">
         <v>25</v>
       </c>
+      <c r="HU81" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="HV81" t="n">
+        <v>28.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -56768,6 +57254,12 @@
       <c r="HT82" t="n">
         <v>189</v>
       </c>
+      <c r="HU82" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="HV82" t="n">
+        <v>188.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -57456,6 +57948,12 @@
       <c r="HT83" t="n">
         <v>87.2</v>
       </c>
+      <c r="HU83" t="n">
+        <v>88</v>
+      </c>
+      <c r="HV83" t="n">
+        <v>88.7</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -58144,6 +58642,12 @@
       <c r="HT84" t="n">
         <v>26.16</v>
       </c>
+      <c r="HU84" t="n">
+        <v>25</v>
+      </c>
+      <c r="HV84" t="n">
+        <v>11.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -58832,6 +59336,12 @@
       <c r="HT85" t="n">
         <v>108</v>
       </c>
+      <c r="HU85" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="HV85" t="n">
+        <v>116.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -59520,6 +60030,12 @@
       <c r="HT86" t="n">
         <v>9</v>
       </c>
+      <c r="HU86" t="n">
+        <v>9</v>
+      </c>
+      <c r="HV86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -60208,6 +60724,12 @@
       <c r="HT87" t="n">
         <v>2</v>
       </c>
+      <c r="HU87" t="n">
+        <v>7</v>
+      </c>
+      <c r="HV87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -60896,6 +61418,12 @@
       <c r="HT88" t="n">
         <v>6</v>
       </c>
+      <c r="HU88" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -61584,6 +62112,12 @@
       <c r="HT89" t="n">
         <v>5</v>
       </c>
+      <c r="HU89" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV89" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -62272,6 +62806,12 @@
       <c r="HT90" t="n">
         <v>110</v>
       </c>
+      <c r="HU90" t="n">
+        <v>130</v>
+      </c>
+      <c r="HV90" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -62960,6 +63500,12 @@
       <c r="HT91" t="n">
         <v>125</v>
       </c>
+      <c r="HU91" t="n">
+        <v>253</v>
+      </c>
+      <c r="HV91" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -63648,6 +64194,12 @@
       <c r="HT92" t="n">
         <v>167</v>
       </c>
+      <c r="HU92" t="n">
+        <v>295</v>
+      </c>
+      <c r="HV92" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -64336,6 +64888,12 @@
       <c r="HT93" t="n">
         <v>68.2</v>
       </c>
+      <c r="HU93" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="HV93" t="n">
+        <v>68.09999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -65024,6 +65582,12 @@
       <c r="HT94" t="n">
         <v>46</v>
       </c>
+      <c r="HU94" t="n">
+        <v>45</v>
+      </c>
+      <c r="HV94" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -65712,6 +66276,12 @@
       <c r="HT95" t="n">
         <v>12</v>
       </c>
+      <c r="HU95" t="n">
+        <v>9</v>
+      </c>
+      <c r="HV95" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -66400,6 +66970,12 @@
       <c r="HT96" t="n">
         <v>8</v>
       </c>
+      <c r="HU96" t="n">
+        <v>12</v>
+      </c>
+      <c r="HV96" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -67088,6 +67664,12 @@
       <c r="HT97" t="n">
         <v>35</v>
       </c>
+      <c r="HU97" t="n">
+        <v>25</v>
+      </c>
+      <c r="HV97" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -67776,6 +68358,12 @@
       <c r="HT98" t="n">
         <v>27</v>
       </c>
+      <c r="HU98" t="n">
+        <v>27</v>
+      </c>
+      <c r="HV98" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -68464,6 +69052,12 @@
       <c r="HT99" t="n">
         <v>35</v>
       </c>
+      <c r="HU99" t="n">
+        <v>49</v>
+      </c>
+      <c r="HV99" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -69152,6 +69746,12 @@
       <c r="HT100" t="n">
         <v>3</v>
       </c>
+      <c r="HU100" t="n">
+        <v>4</v>
+      </c>
+      <c r="HV100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -69840,6 +70440,12 @@
       <c r="HT101" t="n">
         <v>4</v>
       </c>
+      <c r="HU101" t="n">
+        <v>6</v>
+      </c>
+      <c r="HV101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -70528,8 +71134,14 @@
       <c r="HT102" t="n">
         <v>44.4</v>
       </c>
+      <c r="HU102" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="HV102" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Hawthorn_stats.xlsx
+++ b/Hawthorn_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HV102"/>
+  <dimension ref="A1:IB102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1046,6 +1046,24 @@
       <c r="HV1" t="n">
         <v>10267</v>
       </c>
+      <c r="HW1" t="n">
+        <v>10271</v>
+      </c>
+      <c r="HX1" t="n">
+        <v>10278</v>
+      </c>
+      <c r="HY1" t="n">
+        <v>10286</v>
+      </c>
+      <c r="HZ1" t="n">
+        <v>10293</v>
+      </c>
+      <c r="IA1" t="n">
+        <v>10306</v>
+      </c>
+      <c r="IB1" t="n">
+        <v>10314</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1740,6 +1758,24 @@
       <c r="HV2" t="n">
         <v>2020</v>
       </c>
+      <c r="HW2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2434,6 +2470,24 @@
       <c r="HV3" t="n">
         <v>12</v>
       </c>
+      <c r="HW3" t="n">
+        <v>13</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>14</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>15</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>16</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>17</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3128,6 +3182,24 @@
       <c r="HV4" t="n">
         <v>1</v>
       </c>
+      <c r="HW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3822,6 +3894,24 @@
       <c r="HV5" t="n">
         <v>0</v>
       </c>
+      <c r="HW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="IB5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4516,6 +4606,24 @@
       <c r="HV6" t="n">
         <v>49</v>
       </c>
+      <c r="HW6" t="n">
+        <v>58</v>
+      </c>
+      <c r="HX6" t="n">
+        <v>71</v>
+      </c>
+      <c r="HY6" t="n">
+        <v>48</v>
+      </c>
+      <c r="HZ6" t="n">
+        <v>66</v>
+      </c>
+      <c r="IA6" t="n">
+        <v>40</v>
+      </c>
+      <c r="IB6" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5210,6 +5318,24 @@
       <c r="HV7" t="n">
         <v>81</v>
       </c>
+      <c r="HW7" t="n">
+        <v>68</v>
+      </c>
+      <c r="HX7" t="n">
+        <v>87</v>
+      </c>
+      <c r="HY7" t="n">
+        <v>83</v>
+      </c>
+      <c r="HZ7" t="n">
+        <v>80</v>
+      </c>
+      <c r="IA7" t="n">
+        <v>76</v>
+      </c>
+      <c r="IB7" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5904,6 +6030,24 @@
       <c r="HV8" t="n">
         <v>-32</v>
       </c>
+      <c r="HW8" t="n">
+        <v>-10</v>
+      </c>
+      <c r="HX8" t="n">
+        <v>-16</v>
+      </c>
+      <c r="HY8" t="n">
+        <v>-35</v>
+      </c>
+      <c r="HZ8" t="n">
+        <v>-14</v>
+      </c>
+      <c r="IA8" t="n">
+        <v>-36</v>
+      </c>
+      <c r="IB8" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6598,6 +6742,24 @@
       <c r="HV9" t="n">
         <v>0</v>
       </c>
+      <c r="HW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7292,6 +7454,24 @@
       <c r="HV10" t="n">
         <v>17</v>
       </c>
+      <c r="HW10" t="n">
+        <v>13</v>
+      </c>
+      <c r="HX10" t="n">
+        <v>5</v>
+      </c>
+      <c r="HY10" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ10" t="n">
+        <v>15</v>
+      </c>
+      <c r="IA10" t="n">
+        <v>18</v>
+      </c>
+      <c r="IB10" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7986,6 +8166,24 @@
       <c r="HV11" t="n">
         <v>161</v>
       </c>
+      <c r="HW11" t="n">
+        <v>157</v>
+      </c>
+      <c r="HX11" t="n">
+        <v>152</v>
+      </c>
+      <c r="HY11" t="n">
+        <v>152</v>
+      </c>
+      <c r="HZ11" t="n">
+        <v>159</v>
+      </c>
+      <c r="IA11" t="n">
+        <v>140</v>
+      </c>
+      <c r="IB11" t="n">
+        <v>194</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8680,6 +8878,24 @@
       <c r="HV12" t="n">
         <v>150</v>
       </c>
+      <c r="HW12" t="n">
+        <v>117</v>
+      </c>
+      <c r="HX12" t="n">
+        <v>140</v>
+      </c>
+      <c r="HY12" t="n">
+        <v>103</v>
+      </c>
+      <c r="HZ12" t="n">
+        <v>127</v>
+      </c>
+      <c r="IA12" t="n">
+        <v>130</v>
+      </c>
+      <c r="IB12" t="n">
+        <v>176</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9374,6 +9590,24 @@
       <c r="HV13" t="n">
         <v>311</v>
       </c>
+      <c r="HW13" t="n">
+        <v>274</v>
+      </c>
+      <c r="HX13" t="n">
+        <v>292</v>
+      </c>
+      <c r="HY13" t="n">
+        <v>255</v>
+      </c>
+      <c r="HZ13" t="n">
+        <v>286</v>
+      </c>
+      <c r="IA13" t="n">
+        <v>270</v>
+      </c>
+      <c r="IB13" t="n">
+        <v>370</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10068,6 +10302,24 @@
       <c r="HV14" t="n">
         <v>1.07</v>
       </c>
+      <c r="HW14" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="HX14" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="HY14" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="HZ14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="IA14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="IB14" t="n">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10762,6 +11014,24 @@
       <c r="HV15" t="n">
         <v>65</v>
       </c>
+      <c r="HW15" t="n">
+        <v>54</v>
+      </c>
+      <c r="HX15" t="n">
+        <v>66</v>
+      </c>
+      <c r="HY15" t="n">
+        <v>58</v>
+      </c>
+      <c r="HZ15" t="n">
+        <v>71</v>
+      </c>
+      <c r="IA15" t="n">
+        <v>58</v>
+      </c>
+      <c r="IB15" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11456,6 +11726,24 @@
       <c r="HV16" t="n">
         <v>54</v>
       </c>
+      <c r="HW16" t="n">
+        <v>57</v>
+      </c>
+      <c r="HX16" t="n">
+        <v>42</v>
+      </c>
+      <c r="HY16" t="n">
+        <v>52</v>
+      </c>
+      <c r="HZ16" t="n">
+        <v>32</v>
+      </c>
+      <c r="IA16" t="n">
+        <v>71</v>
+      </c>
+      <c r="IB16" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12150,6 +12438,24 @@
       <c r="HV17" t="n">
         <v>17</v>
       </c>
+      <c r="HW17" t="n">
+        <v>39</v>
+      </c>
+      <c r="HX17" t="n">
+        <v>37</v>
+      </c>
+      <c r="HY17" t="n">
+        <v>22</v>
+      </c>
+      <c r="HZ17" t="n">
+        <v>18</v>
+      </c>
+      <c r="IA17" t="n">
+        <v>46</v>
+      </c>
+      <c r="IB17" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12844,6 +13150,24 @@
       <c r="HV18" t="n">
         <v>9</v>
       </c>
+      <c r="HW18" t="n">
+        <v>8</v>
+      </c>
+      <c r="HX18" t="n">
+        <v>16</v>
+      </c>
+      <c r="HY18" t="n">
+        <v>15</v>
+      </c>
+      <c r="HZ18" t="n">
+        <v>8</v>
+      </c>
+      <c r="IA18" t="n">
+        <v>8</v>
+      </c>
+      <c r="IB18" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13538,6 +13862,24 @@
       <c r="HV19" t="n">
         <v>12</v>
       </c>
+      <c r="HW19" t="n">
+        <v>20</v>
+      </c>
+      <c r="HX19" t="n">
+        <v>14</v>
+      </c>
+      <c r="HY19" t="n">
+        <v>14</v>
+      </c>
+      <c r="HZ19" t="n">
+        <v>12</v>
+      </c>
+      <c r="IA19" t="n">
+        <v>10</v>
+      </c>
+      <c r="IB19" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14232,6 +14574,24 @@
       <c r="HV20" t="n">
         <v>7</v>
       </c>
+      <c r="HW20" t="n">
+        <v>9</v>
+      </c>
+      <c r="HX20" t="n">
+        <v>10</v>
+      </c>
+      <c r="HY20" t="n">
+        <v>7</v>
+      </c>
+      <c r="HZ20" t="n">
+        <v>9</v>
+      </c>
+      <c r="IA20" t="n">
+        <v>6</v>
+      </c>
+      <c r="IB20" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14926,6 +15286,24 @@
       <c r="HV21" t="n">
         <v>3</v>
       </c>
+      <c r="HW21" t="n">
+        <v>5</v>
+      </c>
+      <c r="HX21" t="n">
+        <v>6</v>
+      </c>
+      <c r="HY21" t="n">
+        <v>6</v>
+      </c>
+      <c r="HZ21" t="n">
+        <v>7</v>
+      </c>
+      <c r="IA21" t="n">
+        <v>4</v>
+      </c>
+      <c r="IB21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15620,6 +15998,24 @@
       <c r="HV22" t="n">
         <v>5</v>
       </c>
+      <c r="HW22" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX22" t="n">
+        <v>10</v>
+      </c>
+      <c r="HY22" t="n">
+        <v>3</v>
+      </c>
+      <c r="HZ22" t="n">
+        <v>11</v>
+      </c>
+      <c r="IA22" t="n">
+        <v>2</v>
+      </c>
+      <c r="IB22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16314,6 +16710,24 @@
       <c r="HV23" t="n">
         <v>2</v>
       </c>
+      <c r="HW23" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX23" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY23" t="n">
+        <v>3</v>
+      </c>
+      <c r="HZ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="IA23" t="n">
+        <v>2</v>
+      </c>
+      <c r="IB23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17008,6 +17422,24 @@
       <c r="HV24" t="n">
         <v>14</v>
       </c>
+      <c r="HW24" t="n">
+        <v>13</v>
+      </c>
+      <c r="HX24" t="n">
+        <v>21</v>
+      </c>
+      <c r="HY24" t="n">
+        <v>13</v>
+      </c>
+      <c r="HZ24" t="n">
+        <v>21</v>
+      </c>
+      <c r="IA24" t="n">
+        <v>10</v>
+      </c>
+      <c r="IB24" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17702,6 +18134,24 @@
       <c r="HV25" t="n">
         <v>50</v>
       </c>
+      <c r="HW25" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="HX25" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="HY25" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="HZ25" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="IA25" t="n">
+        <v>60</v>
+      </c>
+      <c r="IB25" t="n">
+        <v>73.90000000000001</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18396,6 +18846,24 @@
       <c r="HV26" t="n">
         <v>44.43</v>
       </c>
+      <c r="HW26" t="n">
+        <v>30.44</v>
+      </c>
+      <c r="HX26" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="HY26" t="n">
+        <v>36.43</v>
+      </c>
+      <c r="HZ26" t="n">
+        <v>31.78</v>
+      </c>
+      <c r="IA26" t="n">
+        <v>45</v>
+      </c>
+      <c r="IB26" t="n">
+        <v>21.76</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19090,6 +19558,24 @@
       <c r="HV27" t="n">
         <v>22.21</v>
       </c>
+      <c r="HW27" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="HX27" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="HY27" t="n">
+        <v>19.62</v>
+      </c>
+      <c r="HZ27" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="IA27" t="n">
+        <v>27</v>
+      </c>
+      <c r="IB27" t="n">
+        <v>16.09</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19784,6 +20270,24 @@
       <c r="HV28" t="n">
         <v>33</v>
       </c>
+      <c r="HW28" t="n">
+        <v>25</v>
+      </c>
+      <c r="HX28" t="n">
+        <v>19</v>
+      </c>
+      <c r="HY28" t="n">
+        <v>28</v>
+      </c>
+      <c r="HZ28" t="n">
+        <v>24</v>
+      </c>
+      <c r="IA28" t="n">
+        <v>25</v>
+      </c>
+      <c r="IB28" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20478,6 +20982,24 @@
       <c r="HV29" t="n">
         <v>48</v>
       </c>
+      <c r="HW29" t="n">
+        <v>54</v>
+      </c>
+      <c r="HX29" t="n">
+        <v>36</v>
+      </c>
+      <c r="HY29" t="n">
+        <v>42</v>
+      </c>
+      <c r="HZ29" t="n">
+        <v>36</v>
+      </c>
+      <c r="IA29" t="n">
+        <v>33</v>
+      </c>
+      <c r="IB29" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21172,6 +21694,24 @@
       <c r="HV30" t="n">
         <v>30</v>
       </c>
+      <c r="HW30" t="n">
+        <v>34</v>
+      </c>
+      <c r="HX30" t="n">
+        <v>32</v>
+      </c>
+      <c r="HY30" t="n">
+        <v>31</v>
+      </c>
+      <c r="HZ30" t="n">
+        <v>30</v>
+      </c>
+      <c r="IA30" t="n">
+        <v>30</v>
+      </c>
+      <c r="IB30" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21866,6 +22406,24 @@
       <c r="HV31" t="n">
         <v>48</v>
       </c>
+      <c r="HW31" t="n">
+        <v>39</v>
+      </c>
+      <c r="HX31" t="n">
+        <v>34</v>
+      </c>
+      <c r="HY31" t="n">
+        <v>35</v>
+      </c>
+      <c r="HZ31" t="n">
+        <v>42</v>
+      </c>
+      <c r="IA31" t="n">
+        <v>33</v>
+      </c>
+      <c r="IB31" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22560,6 +23118,24 @@
       <c r="HV32" t="n">
         <v>3.43</v>
       </c>
+      <c r="HW32" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX32" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="HY32" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="HZ32" t="n">
+        <v>2</v>
+      </c>
+      <c r="IA32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="IB32" t="n">
+        <v>1.91</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23254,6 +23830,24 @@
       <c r="HV33" t="n">
         <v>6.86</v>
       </c>
+      <c r="HW33" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="HX33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="HY33" t="n">
+        <v>5</v>
+      </c>
+      <c r="HZ33" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="IA33" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="IB33" t="n">
+        <v>2.59</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23948,6 +24542,24 @@
       <c r="HV34" t="n">
         <v>25</v>
       </c>
+      <c r="HW34" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="HX34" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="HY34" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="HZ34" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="IA34" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="IB34" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24642,6 +25254,24 @@
       <c r="HV35" t="n">
         <v>14.6</v>
       </c>
+      <c r="HW35" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="HX35" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="HY35" t="n">
+        <v>20</v>
+      </c>
+      <c r="HZ35" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="IA35" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="IB35" t="n">
+        <v>38.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25336,6 +25966,24 @@
       <c r="HV36" t="n">
         <v>187.5</v>
       </c>
+      <c r="HW36" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="HX36" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="HY36" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="HZ36" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="IA36" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="IB36" t="n">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26030,6 +26678,24 @@
       <c r="HV37" t="n">
         <v>85.7</v>
       </c>
+      <c r="HW37" t="n">
+        <v>86</v>
+      </c>
+      <c r="HX37" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="HY37" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="HZ37" t="n">
+        <v>84</v>
+      </c>
+      <c r="IA37" t="n">
+        <v>85</v>
+      </c>
+      <c r="IB37" t="n">
+        <v>85.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26724,6 +27390,24 @@
       <c r="HV38" t="n">
         <v>26.33</v>
       </c>
+      <c r="HW38" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="HX38" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="HY38" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="HZ38" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="IA38" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="IB38" t="n">
+        <v>26.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27418,6 +28102,24 @@
       <c r="HV39" t="n">
         <v>121.8</v>
       </c>
+      <c r="HW39" t="n">
+        <v>110.1</v>
+      </c>
+      <c r="HX39" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="HY39" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="HZ39" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="IA39" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="IB39" t="n">
+        <v>127.4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28112,6 +28814,24 @@
       <c r="HV40" t="n">
         <v>7</v>
       </c>
+      <c r="HW40" t="n">
+        <v>8</v>
+      </c>
+      <c r="HX40" t="n">
+        <v>9</v>
+      </c>
+      <c r="HY40" t="n">
+        <v>8</v>
+      </c>
+      <c r="HZ40" t="n">
+        <v>10</v>
+      </c>
+      <c r="IA40" t="n">
+        <v>8</v>
+      </c>
+      <c r="IB40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28806,6 +29526,24 @@
       <c r="HV41" t="n">
         <v>3</v>
       </c>
+      <c r="HW41" t="n">
+        <v>4</v>
+      </c>
+      <c r="HX41" t="n">
+        <v>5</v>
+      </c>
+      <c r="HY41" t="n">
+        <v>4</v>
+      </c>
+      <c r="HZ41" t="n">
+        <v>4</v>
+      </c>
+      <c r="IA41" t="n">
+        <v>4</v>
+      </c>
+      <c r="IB41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29500,6 +30238,24 @@
       <c r="HV42" t="n">
         <v>4</v>
       </c>
+      <c r="HW42" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX42" t="n">
+        <v>2</v>
+      </c>
+      <c r="HY42" t="n">
+        <v>2</v>
+      </c>
+      <c r="HZ42" t="n">
+        <v>2</v>
+      </c>
+      <c r="IA42" t="n">
+        <v>3</v>
+      </c>
+      <c r="IB42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30194,6 +30950,24 @@
       <c r="HV43" t="n">
         <v>8</v>
       </c>
+      <c r="HW43" t="n">
+        <v>7</v>
+      </c>
+      <c r="HX43" t="n">
+        <v>6</v>
+      </c>
+      <c r="HY43" t="n">
+        <v>8</v>
+      </c>
+      <c r="HZ43" t="n">
+        <v>6</v>
+      </c>
+      <c r="IA43" t="n">
+        <v>7</v>
+      </c>
+      <c r="IB43" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30888,6 +31662,24 @@
       <c r="HV44" t="n">
         <v>114</v>
       </c>
+      <c r="HW44" t="n">
+        <v>111</v>
+      </c>
+      <c r="HX44" t="n">
+        <v>104</v>
+      </c>
+      <c r="HY44" t="n">
+        <v>103</v>
+      </c>
+      <c r="HZ44" t="n">
+        <v>95</v>
+      </c>
+      <c r="IA44" t="n">
+        <v>103</v>
+      </c>
+      <c r="IB44" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31582,6 +32374,24 @@
       <c r="HV45" t="n">
         <v>194</v>
       </c>
+      <c r="HW45" t="n">
+        <v>153</v>
+      </c>
+      <c r="HX45" t="n">
+        <v>189</v>
+      </c>
+      <c r="HY45" t="n">
+        <v>145</v>
+      </c>
+      <c r="HZ45" t="n">
+        <v>183</v>
+      </c>
+      <c r="IA45" t="n">
+        <v>168</v>
+      </c>
+      <c r="IB45" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32276,6 +33086,24 @@
       <c r="HV46" t="n">
         <v>212</v>
       </c>
+      <c r="HW46" t="n">
+        <v>189</v>
+      </c>
+      <c r="HX46" t="n">
+        <v>221</v>
+      </c>
+      <c r="HY46" t="n">
+        <v>184</v>
+      </c>
+      <c r="HZ46" t="n">
+        <v>214</v>
+      </c>
+      <c r="IA46" t="n">
+        <v>192</v>
+      </c>
+      <c r="IB46" t="n">
+        <v>305</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32970,6 +33798,24 @@
       <c r="HV47" t="n">
         <v>68.2</v>
       </c>
+      <c r="HW47" t="n">
+        <v>69</v>
+      </c>
+      <c r="HX47" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="HY47" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="HZ47" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="IA47" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="IB47" t="n">
+        <v>82.40000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33664,6 +34510,24 @@
       <c r="HV48" t="n">
         <v>48</v>
       </c>
+      <c r="HW48" t="n">
+        <v>54</v>
+      </c>
+      <c r="HX48" t="n">
+        <v>36</v>
+      </c>
+      <c r="HY48" t="n">
+        <v>42</v>
+      </c>
+      <c r="HZ48" t="n">
+        <v>36</v>
+      </c>
+      <c r="IA48" t="n">
+        <v>33</v>
+      </c>
+      <c r="IB48" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34358,6 +35222,24 @@
       <c r="HV49" t="n">
         <v>7</v>
       </c>
+      <c r="HW49" t="n">
+        <v>9</v>
+      </c>
+      <c r="HX49" t="n">
+        <v>13</v>
+      </c>
+      <c r="HY49" t="n">
+        <v>6</v>
+      </c>
+      <c r="HZ49" t="n">
+        <v>13</v>
+      </c>
+      <c r="IA49" t="n">
+        <v>5</v>
+      </c>
+      <c r="IB49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35052,6 +35934,24 @@
       <c r="HV50" t="n">
         <v>8</v>
       </c>
+      <c r="HW50" t="n">
+        <v>7</v>
+      </c>
+      <c r="HX50" t="n">
+        <v>7</v>
+      </c>
+      <c r="HY50" t="n">
+        <v>6</v>
+      </c>
+      <c r="HZ50" t="n">
+        <v>10</v>
+      </c>
+      <c r="IA50" t="n">
+        <v>5</v>
+      </c>
+      <c r="IB50" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35746,6 +36646,24 @@
       <c r="HV51" t="n">
         <v>33</v>
       </c>
+      <c r="HW51" t="n">
+        <v>25</v>
+      </c>
+      <c r="HX51" t="n">
+        <v>19</v>
+      </c>
+      <c r="HY51" t="n">
+        <v>28</v>
+      </c>
+      <c r="HZ51" t="n">
+        <v>24</v>
+      </c>
+      <c r="IA51" t="n">
+        <v>25</v>
+      </c>
+      <c r="IB51" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36440,6 +37358,24 @@
       <c r="HV52" t="n">
         <v>30</v>
       </c>
+      <c r="HW52" t="n">
+        <v>34</v>
+      </c>
+      <c r="HX52" t="n">
+        <v>32</v>
+      </c>
+      <c r="HY52" t="n">
+        <v>31</v>
+      </c>
+      <c r="HZ52" t="n">
+        <v>30</v>
+      </c>
+      <c r="IA52" t="n">
+        <v>30</v>
+      </c>
+      <c r="IB52" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37134,6 +38070,24 @@
       <c r="HV53" t="n">
         <v>44</v>
       </c>
+      <c r="HW53" t="n">
+        <v>48</v>
+      </c>
+      <c r="HX53" t="n">
+        <v>46</v>
+      </c>
+      <c r="HY53" t="n">
+        <v>41</v>
+      </c>
+      <c r="HZ53" t="n">
+        <v>28</v>
+      </c>
+      <c r="IA53" t="n">
+        <v>50</v>
+      </c>
+      <c r="IB53" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37828,6 +38782,24 @@
       <c r="HV54" t="n">
         <v>0</v>
       </c>
+      <c r="HW54" t="n">
+        <v>2</v>
+      </c>
+      <c r="HX54" t="n">
+        <v>6</v>
+      </c>
+      <c r="HY54" t="n">
+        <v>5</v>
+      </c>
+      <c r="HZ54" t="n">
+        <v>2</v>
+      </c>
+      <c r="IA54" t="n">
+        <v>1</v>
+      </c>
+      <c r="IB54" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38522,6 +39494,24 @@
       <c r="HV55" t="n">
         <v>3</v>
       </c>
+      <c r="HW55" t="n">
+        <v>5</v>
+      </c>
+      <c r="HX55" t="n">
+        <v>6</v>
+      </c>
+      <c r="HY55" t="n">
+        <v>6</v>
+      </c>
+      <c r="HZ55" t="n">
+        <v>7</v>
+      </c>
+      <c r="IA55" t="n">
+        <v>4</v>
+      </c>
+      <c r="IB55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -39216,6 +40206,24 @@
       <c r="HV56" t="n">
         <v>42.9</v>
       </c>
+      <c r="HW56" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="HX56" t="n">
+        <v>60</v>
+      </c>
+      <c r="HY56" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="HZ56" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="IA56" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="IB56" t="n">
+        <v>58.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39910,6 +40918,24 @@
       <c r="HV57" t="n">
         <v>198</v>
       </c>
+      <c r="HW57" t="n">
+        <v>180</v>
+      </c>
+      <c r="HX57" t="n">
+        <v>151</v>
+      </c>
+      <c r="HY57" t="n">
+        <v>159</v>
+      </c>
+      <c r="HZ57" t="n">
+        <v>205</v>
+      </c>
+      <c r="IA57" t="n">
+        <v>192</v>
+      </c>
+      <c r="IB57" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40604,6 +41630,24 @@
       <c r="HV58" t="n">
         <v>122</v>
       </c>
+      <c r="HW58" t="n">
+        <v>157</v>
+      </c>
+      <c r="HX58" t="n">
+        <v>174</v>
+      </c>
+      <c r="HY58" t="n">
+        <v>161</v>
+      </c>
+      <c r="HZ58" t="n">
+        <v>109</v>
+      </c>
+      <c r="IA58" t="n">
+        <v>158</v>
+      </c>
+      <c r="IB58" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -41298,6 +42342,24 @@
       <c r="HV59" t="n">
         <v>320</v>
       </c>
+      <c r="HW59" t="n">
+        <v>337</v>
+      </c>
+      <c r="HX59" t="n">
+        <v>325</v>
+      </c>
+      <c r="HY59" t="n">
+        <v>320</v>
+      </c>
+      <c r="HZ59" t="n">
+        <v>314</v>
+      </c>
+      <c r="IA59" t="n">
+        <v>350</v>
+      </c>
+      <c r="IB59" t="n">
+        <v>271</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41992,6 +43054,24 @@
       <c r="HV60" t="n">
         <v>1.62</v>
       </c>
+      <c r="HW60" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="HX60" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="HY60" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="HZ60" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="IA60" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="IB60" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -42686,6 +43766,24 @@
       <c r="HV61" t="n">
         <v>84</v>
       </c>
+      <c r="HW61" t="n">
+        <v>69</v>
+      </c>
+      <c r="HX61" t="n">
+        <v>54</v>
+      </c>
+      <c r="HY61" t="n">
+        <v>58</v>
+      </c>
+      <c r="HZ61" t="n">
+        <v>112</v>
+      </c>
+      <c r="IA61" t="n">
+        <v>85</v>
+      </c>
+      <c r="IB61" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -43380,6 +44478,24 @@
       <c r="HV62" t="n">
         <v>57</v>
       </c>
+      <c r="HW62" t="n">
+        <v>61</v>
+      </c>
+      <c r="HX62" t="n">
+        <v>50</v>
+      </c>
+      <c r="HY62" t="n">
+        <v>42</v>
+      </c>
+      <c r="HZ62" t="n">
+        <v>34</v>
+      </c>
+      <c r="IA62" t="n">
+        <v>65</v>
+      </c>
+      <c r="IB62" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -44074,6 +45190,24 @@
       <c r="HV63" t="n">
         <v>46</v>
       </c>
+      <c r="HW63" t="n">
+        <v>26</v>
+      </c>
+      <c r="HX63" t="n">
+        <v>22</v>
+      </c>
+      <c r="HY63" t="n">
+        <v>30</v>
+      </c>
+      <c r="HZ63" t="n">
+        <v>30</v>
+      </c>
+      <c r="IA63" t="n">
+        <v>25</v>
+      </c>
+      <c r="IB63" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44768,6 +45902,24 @@
       <c r="HV64" t="n">
         <v>12</v>
       </c>
+      <c r="HW64" t="n">
+        <v>20</v>
+      </c>
+      <c r="HX64" t="n">
+        <v>14</v>
+      </c>
+      <c r="HY64" t="n">
+        <v>14</v>
+      </c>
+      <c r="HZ64" t="n">
+        <v>12</v>
+      </c>
+      <c r="IA64" t="n">
+        <v>10</v>
+      </c>
+      <c r="IB64" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -45462,6 +46614,24 @@
       <c r="HV65" t="n">
         <v>9</v>
       </c>
+      <c r="HW65" t="n">
+        <v>8</v>
+      </c>
+      <c r="HX65" t="n">
+        <v>16</v>
+      </c>
+      <c r="HY65" t="n">
+        <v>15</v>
+      </c>
+      <c r="HZ65" t="n">
+        <v>8</v>
+      </c>
+      <c r="IA65" t="n">
+        <v>8</v>
+      </c>
+      <c r="IB65" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -46156,6 +47326,24 @@
       <c r="HV66" t="n">
         <v>12</v>
       </c>
+      <c r="HW66" t="n">
+        <v>9</v>
+      </c>
+      <c r="HX66" t="n">
+        <v>13</v>
+      </c>
+      <c r="HY66" t="n">
+        <v>12</v>
+      </c>
+      <c r="HZ66" t="n">
+        <v>11</v>
+      </c>
+      <c r="IA66" t="n">
+        <v>11</v>
+      </c>
+      <c r="IB66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -46850,6 +48038,24 @@
       <c r="HV67" t="n">
         <v>6</v>
       </c>
+      <c r="HW67" t="n">
+        <v>5</v>
+      </c>
+      <c r="HX67" t="n">
+        <v>9</v>
+      </c>
+      <c r="HY67" t="n">
+        <v>10</v>
+      </c>
+      <c r="HZ67" t="n">
+        <v>10</v>
+      </c>
+      <c r="IA67" t="n">
+        <v>9</v>
+      </c>
+      <c r="IB67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -47544,6 +48750,24 @@
       <c r="HV68" t="n">
         <v>6</v>
       </c>
+      <c r="HW68" t="n">
+        <v>12</v>
+      </c>
+      <c r="HX68" t="n">
+        <v>7</v>
+      </c>
+      <c r="HY68" t="n">
+        <v>10</v>
+      </c>
+      <c r="HZ68" t="n">
+        <v>11</v>
+      </c>
+      <c r="IA68" t="n">
+        <v>9</v>
+      </c>
+      <c r="IB68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -48238,6 +49462,24 @@
       <c r="HV69" t="n">
         <v>3</v>
       </c>
+      <c r="HW69" t="n">
+        <v>2</v>
+      </c>
+      <c r="HX69" t="n">
+        <v>2</v>
+      </c>
+      <c r="HY69" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ69" t="n">
+        <v>3</v>
+      </c>
+      <c r="IA69" t="n">
+        <v>1</v>
+      </c>
+      <c r="IB69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -48932,6 +50174,24 @@
       <c r="HV70" t="n">
         <v>21</v>
       </c>
+      <c r="HW70" t="n">
+        <v>23</v>
+      </c>
+      <c r="HX70" t="n">
+        <v>22</v>
+      </c>
+      <c r="HY70" t="n">
+        <v>23</v>
+      </c>
+      <c r="HZ70" t="n">
+        <v>25</v>
+      </c>
+      <c r="IA70" t="n">
+        <v>21</v>
+      </c>
+      <c r="IB70" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -49626,6 +50886,24 @@
       <c r="HV71" t="n">
         <v>57.1</v>
       </c>
+      <c r="HW71" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="HX71" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="HY71" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="HZ71" t="n">
+        <v>44</v>
+      </c>
+      <c r="IA71" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="IB71" t="n">
+        <v>47.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -50320,6 +51598,24 @@
       <c r="HV72" t="n">
         <v>26.67</v>
       </c>
+      <c r="HW72" t="n">
+        <v>37.44</v>
+      </c>
+      <c r="HX72" t="n">
+        <v>25</v>
+      </c>
+      <c r="HY72" t="n">
+        <v>26.67</v>
+      </c>
+      <c r="HZ72" t="n">
+        <v>28.55</v>
+      </c>
+      <c r="IA72" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="IB72" t="n">
+        <v>33.88</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -51014,6 +52310,24 @@
       <c r="HV73" t="n">
         <v>15.24</v>
       </c>
+      <c r="HW73" t="n">
+        <v>14.65</v>
+      </c>
+      <c r="HX73" t="n">
+        <v>14.77</v>
+      </c>
+      <c r="HY73" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="HZ73" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="IA73" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="IB73" t="n">
+        <v>15.94</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -51708,6 +53022,24 @@
       <c r="HV74" t="n">
         <v>35</v>
       </c>
+      <c r="HW74" t="n">
+        <v>35</v>
+      </c>
+      <c r="HX74" t="n">
+        <v>40</v>
+      </c>
+      <c r="HY74" t="n">
+        <v>31</v>
+      </c>
+      <c r="HZ74" t="n">
+        <v>25</v>
+      </c>
+      <c r="IA74" t="n">
+        <v>34</v>
+      </c>
+      <c r="IB74" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -52402,6 +53734,24 @@
       <c r="HV75" t="n">
         <v>51</v>
       </c>
+      <c r="HW75" t="n">
+        <v>40</v>
+      </c>
+      <c r="HX75" t="n">
+        <v>45</v>
+      </c>
+      <c r="HY75" t="n">
+        <v>45</v>
+      </c>
+      <c r="HZ75" t="n">
+        <v>33</v>
+      </c>
+      <c r="IA75" t="n">
+        <v>36</v>
+      </c>
+      <c r="IB75" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -53096,6 +54446,24 @@
       <c r="HV76" t="n">
         <v>41</v>
       </c>
+      <c r="HW76" t="n">
+        <v>30</v>
+      </c>
+      <c r="HX76" t="n">
+        <v>24</v>
+      </c>
+      <c r="HY76" t="n">
+        <v>27</v>
+      </c>
+      <c r="HZ76" t="n">
+        <v>31</v>
+      </c>
+      <c r="IA76" t="n">
+        <v>26</v>
+      </c>
+      <c r="IB76" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -53790,6 +55158,24 @@
       <c r="HV77" t="n">
         <v>42</v>
       </c>
+      <c r="HW77" t="n">
+        <v>44</v>
+      </c>
+      <c r="HX77" t="n">
+        <v>46</v>
+      </c>
+      <c r="HY77" t="n">
+        <v>46</v>
+      </c>
+      <c r="HZ77" t="n">
+        <v>43</v>
+      </c>
+      <c r="IA77" t="n">
+        <v>42</v>
+      </c>
+      <c r="IB77" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -54484,6 +55870,24 @@
       <c r="HV78" t="n">
         <v>2</v>
       </c>
+      <c r="HW78" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="HX78" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="HY78" t="n">
+        <v>2</v>
+      </c>
+      <c r="HZ78" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="IA78" t="n">
+        <v>2</v>
+      </c>
+      <c r="IB78" t="n">
+        <v>2.29</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -55178,6 +56582,24 @@
       <c r="HV79" t="n">
         <v>3.5</v>
       </c>
+      <c r="HW79" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="HX79" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="HY79" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="HZ79" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="IA79" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="IB79" t="n">
+        <v>4.88</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -55872,6 +57294,24 @@
       <c r="HV80" t="n">
         <v>42.9</v>
       </c>
+      <c r="HW80" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="HX80" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="HY80" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="HZ80" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="IA80" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="IB80" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -56566,6 +58006,24 @@
       <c r="HV81" t="n">
         <v>28.6</v>
       </c>
+      <c r="HW81" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="HX81" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="HY81" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="HZ81" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="IA81" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="IB81" t="n">
+        <v>20.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -57260,6 +58718,24 @@
       <c r="HV82" t="n">
         <v>188.7</v>
       </c>
+      <c r="HW82" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="HX82" t="n">
+        <v>186</v>
+      </c>
+      <c r="HY82" t="n">
+        <v>185.9</v>
+      </c>
+      <c r="HZ82" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="IA82" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="IB82" t="n">
+        <v>188.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -57954,6 +59430,24 @@
       <c r="HV83" t="n">
         <v>88.7</v>
       </c>
+      <c r="HW83" t="n">
+        <v>85</v>
+      </c>
+      <c r="HX83" t="n">
+        <v>85</v>
+      </c>
+      <c r="HY83" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="HZ83" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="IA83" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="IB83" t="n">
+        <v>86.09999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -58648,6 +60142,24 @@
       <c r="HV84" t="n">
         <v>11.8</v>
       </c>
+      <c r="HW84" t="n">
+        <v>27</v>
+      </c>
+      <c r="HX84" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="HY84" t="n">
+        <v>25.24</v>
+      </c>
+      <c r="HZ84" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="IA84" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="IB84" t="n">
+        <v>23.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -59342,6 +60854,24 @@
       <c r="HV85" t="n">
         <v>116.5</v>
       </c>
+      <c r="HW85" t="n">
+        <v>128.2</v>
+      </c>
+      <c r="HX85" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="HY85" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="HZ85" t="n">
+        <v>80</v>
+      </c>
+      <c r="IA85" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="IB85" t="n">
+        <v>74.90000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -60036,6 +61566,24 @@
       <c r="HV86" t="n">
         <v>8</v>
       </c>
+      <c r="HW86" t="n">
+        <v>5</v>
+      </c>
+      <c r="HX86" t="n">
+        <v>9</v>
+      </c>
+      <c r="HY86" t="n">
+        <v>11</v>
+      </c>
+      <c r="HZ86" t="n">
+        <v>10</v>
+      </c>
+      <c r="IA86" t="n">
+        <v>5</v>
+      </c>
+      <c r="IB86" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -60730,6 +62278,24 @@
       <c r="HV87" t="n">
         <v>3</v>
       </c>
+      <c r="HW87" t="n">
+        <v>4</v>
+      </c>
+      <c r="HX87" t="n">
+        <v>5</v>
+      </c>
+      <c r="HY87" t="n">
+        <v>2</v>
+      </c>
+      <c r="HZ87" t="n">
+        <v>6</v>
+      </c>
+      <c r="IA87" t="n">
+        <v>6</v>
+      </c>
+      <c r="IB87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -61424,6 +62990,24 @@
       <c r="HV88" t="n">
         <v>2</v>
       </c>
+      <c r="HW88" t="n">
+        <v>4</v>
+      </c>
+      <c r="HX88" t="n">
+        <v>5</v>
+      </c>
+      <c r="HY88" t="n">
+        <v>2</v>
+      </c>
+      <c r="HZ88" t="n">
+        <v>3</v>
+      </c>
+      <c r="IA88" t="n">
+        <v>9</v>
+      </c>
+      <c r="IB88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -62118,6 +63702,24 @@
       <c r="HV89" t="n">
         <v>9</v>
       </c>
+      <c r="HW89" t="n">
+        <v>9</v>
+      </c>
+      <c r="HX89" t="n">
+        <v>3</v>
+      </c>
+      <c r="HY89" t="n">
+        <v>7</v>
+      </c>
+      <c r="HZ89" t="n">
+        <v>3</v>
+      </c>
+      <c r="IA89" t="n">
+        <v>2</v>
+      </c>
+      <c r="IB89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -62812,6 +64414,24 @@
       <c r="HV90" t="n">
         <v>145</v>
       </c>
+      <c r="HW90" t="n">
+        <v>129</v>
+      </c>
+      <c r="HX90" t="n">
+        <v>116</v>
+      </c>
+      <c r="HY90" t="n">
+        <v>128</v>
+      </c>
+      <c r="HZ90" t="n">
+        <v>90</v>
+      </c>
+      <c r="IA90" t="n">
+        <v>133</v>
+      </c>
+      <c r="IB90" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -63506,6 +65126,24 @@
       <c r="HV91" t="n">
         <v>186</v>
       </c>
+      <c r="HW91" t="n">
+        <v>207</v>
+      </c>
+      <c r="HX91" t="n">
+        <v>213</v>
+      </c>
+      <c r="HY91" t="n">
+        <v>190</v>
+      </c>
+      <c r="HZ91" t="n">
+        <v>218</v>
+      </c>
+      <c r="IA91" t="n">
+        <v>224</v>
+      </c>
+      <c r="IB91" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -64200,6 +65838,24 @@
       <c r="HV92" t="n">
         <v>218</v>
       </c>
+      <c r="HW92" t="n">
+        <v>246</v>
+      </c>
+      <c r="HX92" t="n">
+        <v>245</v>
+      </c>
+      <c r="HY92" t="n">
+        <v>238</v>
+      </c>
+      <c r="HZ92" t="n">
+        <v>247</v>
+      </c>
+      <c r="IA92" t="n">
+        <v>254</v>
+      </c>
+      <c r="IB92" t="n">
+        <v>194</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -64894,6 +66550,24 @@
       <c r="HV93" t="n">
         <v>68.09999999999999</v>
       </c>
+      <c r="HW93" t="n">
+        <v>73</v>
+      </c>
+      <c r="HX93" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="HY93" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="HZ93" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="IA93" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="IB93" t="n">
+        <v>71.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -65588,6 +67262,24 @@
       <c r="HV94" t="n">
         <v>51</v>
       </c>
+      <c r="HW94" t="n">
+        <v>40</v>
+      </c>
+      <c r="HX94" t="n">
+        <v>45</v>
+      </c>
+      <c r="HY94" t="n">
+        <v>45</v>
+      </c>
+      <c r="HZ94" t="n">
+        <v>33</v>
+      </c>
+      <c r="IA94" t="n">
+        <v>36</v>
+      </c>
+      <c r="IB94" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -66282,6 +67974,24 @@
       <c r="HV95" t="n">
         <v>19</v>
       </c>
+      <c r="HW95" t="n">
+        <v>9</v>
+      </c>
+      <c r="HX95" t="n">
+        <v>7</v>
+      </c>
+      <c r="HY95" t="n">
+        <v>13</v>
+      </c>
+      <c r="HZ95" t="n">
+        <v>11</v>
+      </c>
+      <c r="IA95" t="n">
+        <v>9</v>
+      </c>
+      <c r="IB95" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -66976,6 +68686,24 @@
       <c r="HV96" t="n">
         <v>12</v>
       </c>
+      <c r="HW96" t="n">
+        <v>4</v>
+      </c>
+      <c r="HX96" t="n">
+        <v>12</v>
+      </c>
+      <c r="HY96" t="n">
+        <v>14</v>
+      </c>
+      <c r="HZ96" t="n">
+        <v>15</v>
+      </c>
+      <c r="IA96" t="n">
+        <v>9</v>
+      </c>
+      <c r="IB96" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -67670,6 +69398,24 @@
       <c r="HV97" t="n">
         <v>35</v>
       </c>
+      <c r="HW97" t="n">
+        <v>35</v>
+      </c>
+      <c r="HX97" t="n">
+        <v>40</v>
+      </c>
+      <c r="HY97" t="n">
+        <v>31</v>
+      </c>
+      <c r="HZ97" t="n">
+        <v>25</v>
+      </c>
+      <c r="IA97" t="n">
+        <v>34</v>
+      </c>
+      <c r="IB97" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -68364,6 +70110,24 @@
       <c r="HV98" t="n">
         <v>41</v>
       </c>
+      <c r="HW98" t="n">
+        <v>30</v>
+      </c>
+      <c r="HX98" t="n">
+        <v>24</v>
+      </c>
+      <c r="HY98" t="n">
+        <v>27</v>
+      </c>
+      <c r="HZ98" t="n">
+        <v>31</v>
+      </c>
+      <c r="IA98" t="n">
+        <v>26</v>
+      </c>
+      <c r="IB98" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -69058,6 +70822,24 @@
       <c r="HV99" t="n">
         <v>50</v>
       </c>
+      <c r="HW99" t="n">
+        <v>48</v>
+      </c>
+      <c r="HX99" t="n">
+        <v>44</v>
+      </c>
+      <c r="HY99" t="n">
+        <v>40</v>
+      </c>
+      <c r="HZ99" t="n">
+        <v>33</v>
+      </c>
+      <c r="IA99" t="n">
+        <v>61</v>
+      </c>
+      <c r="IB99" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -69752,6 +71534,24 @@
       <c r="HV100" t="n">
         <v>0</v>
       </c>
+      <c r="HW100" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX100" t="n">
+        <v>6</v>
+      </c>
+      <c r="HY100" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ100" t="n">
+        <v>2</v>
+      </c>
+      <c r="IA100" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -70446,6 +72246,24 @@
       <c r="HV101" t="n">
         <v>6</v>
       </c>
+      <c r="HW101" t="n">
+        <v>5</v>
+      </c>
+      <c r="HX101" t="n">
+        <v>9</v>
+      </c>
+      <c r="HY101" t="n">
+        <v>10</v>
+      </c>
+      <c r="HZ101" t="n">
+        <v>10</v>
+      </c>
+      <c r="IA101" t="n">
+        <v>9</v>
+      </c>
+      <c r="IB101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -71140,8 +72958,26 @@
       <c r="HV102" t="n">
         <v>50</v>
       </c>
+      <c r="HW102" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="HX102" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="HY102" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="HZ102" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="IA102" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="IB102" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>